--- a/capiq_data/in_process_data/IQ93625.xlsx
+++ b/capiq_data/in_process_data/IQ93625.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A68626D-8C0B-4087-9E3C-C9846CBEB09E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAFE38D-1168-4FB9-AE56-E9A7AEC80EFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"3c717af2-b202-4e47-96e4-e13ccee06213"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"71704429-ab34-44a7-b987-bf0272791db9"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36890</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>1026</v>
+        <v>209.5</v>
       </c>
       <c r="D2">
-        <v>24589</v>
+        <v>5488.8</v>
       </c>
       <c r="E2">
-        <v>4925</v>
+        <v>824.5</v>
       </c>
       <c r="F2">
-        <v>5454</v>
+        <v>1428.5</v>
       </c>
       <c r="G2">
-        <v>17706</v>
+        <v>4936.6000000000004</v>
       </c>
       <c r="H2">
-        <v>62169</v>
+        <v>7949.5</v>
       </c>
       <c r="I2">
-        <v>4026</v>
+        <v>1351.5</v>
       </c>
       <c r="J2">
-        <v>8652</v>
+        <v>536.79999999999995</v>
       </c>
       <c r="K2">
-        <v>300</v>
+        <v>589.6</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11070</v>
+        <v>2964.1</v>
       </c>
       <c r="O2">
-        <v>24435</v>
+        <v>3644.9</v>
       </c>
       <c r="P2">
-        <v>10057</v>
+        <v>1148</v>
       </c>
       <c r="Q2">
-        <v>448</v>
+        <v>122.4</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36890</v>
       </c>
       <c r="S2">
-        <v>201000</v>
+        <v>51000</v>
       </c>
       <c r="T2">
-        <v>37734</v>
+        <v>4304.6000000000004</v>
       </c>
       <c r="U2">
-        <v>1427</v>
+        <v>337.3</v>
       </c>
       <c r="V2">
-        <v>1775</v>
+        <v>478</v>
       </c>
       <c r="W2">
-        <v>-119</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-1075</v>
+        <v>-306.5</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,125 +931,125 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>1026</v>
+        <v>209.5</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>713</v>
+        <v>221.7</v>
       </c>
       <c r="D3">
-        <v>25695</v>
+        <v>5385.9</v>
       </c>
       <c r="E3">
-        <v>5348</v>
+        <v>893.7</v>
       </c>
       <c r="F3">
-        <v>4742</v>
+        <v>1453.4</v>
       </c>
       <c r="G3">
-        <v>18380</v>
+        <v>5244.2</v>
       </c>
       <c r="H3">
-        <v>62828</v>
+        <v>8374.7999999999993</v>
       </c>
       <c r="I3">
-        <v>4354</v>
+        <v>1230.8</v>
       </c>
       <c r="J3">
-        <v>8669</v>
+        <v>836.6</v>
       </c>
       <c r="K3">
-        <v>300</v>
+        <v>549.6</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="M3">
-        <v>-301</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11465</v>
+        <v>2854.2</v>
       </c>
       <c r="O3">
-        <v>24876</v>
+        <v>3836.6</v>
       </c>
       <c r="P3">
-        <v>9775</v>
+        <v>1407.8</v>
       </c>
       <c r="Q3">
-        <v>735</v>
+        <v>-37.5</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>37952</v>
+        <v>4538.2</v>
       </c>
       <c r="U3">
-        <v>2162</v>
+        <v>299.8</v>
       </c>
       <c r="V3">
-        <v>1866</v>
+        <v>-93.3</v>
       </c>
       <c r="W3">
-        <v>-171</v>
+        <v>-22.6</v>
       </c>
       <c r="X3">
-        <v>-832</v>
+        <v>257</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>713</v>
+        <v>221.7</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>816</v>
+        <v>198</v>
       </c>
       <c r="D4">
-        <v>26414</v>
+        <v>5494.2</v>
       </c>
       <c r="E4">
-        <v>5892</v>
+        <v>934.1</v>
       </c>
       <c r="F4">
-        <v>5086</v>
+        <v>1458.4</v>
       </c>
       <c r="G4">
-        <v>19065</v>
+        <v>5355.7</v>
       </c>
       <c r="H4">
-        <v>65487</v>
+        <v>8571.7000000000007</v>
       </c>
       <c r="I4">
-        <v>4446</v>
+        <v>1423.7</v>
       </c>
       <c r="J4">
-        <v>10168</v>
+        <v>836.4</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>479.5</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11752</v>
+        <v>2863.1</v>
       </c>
       <c r="O4">
-        <v>27211</v>
+        <v>3844.7</v>
       </c>
       <c r="P4">
-        <v>11084</v>
+        <v>1337.5</v>
       </c>
       <c r="Q4">
-        <v>66</v>
+        <v>-26</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>38276</v>
+        <v>4727</v>
       </c>
       <c r="U4">
-        <v>2228</v>
+        <v>273.8</v>
       </c>
       <c r="V4">
-        <v>1207</v>
+        <v>220.3</v>
       </c>
       <c r="W4">
-        <v>-170</v>
+        <v>-22.6</v>
       </c>
       <c r="X4">
-        <v>626</v>
+        <v>-84</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>816</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37163</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>868</v>
+        <v>123.8</v>
       </c>
       <c r="D5">
-        <v>26674</v>
+        <v>5410.8</v>
       </c>
       <c r="E5">
-        <v>5901</v>
+        <v>956.5</v>
       </c>
       <c r="F5">
-        <v>5178</v>
+        <v>1371.8</v>
       </c>
       <c r="G5">
-        <v>18938</v>
+        <v>5664.5</v>
       </c>
       <c r="H5">
-        <v>65251</v>
+        <v>8945.5</v>
       </c>
       <c r="I5">
-        <v>4387</v>
+        <v>1550.7</v>
       </c>
       <c r="J5">
-        <v>10167</v>
+        <v>836.2</v>
       </c>
       <c r="K5">
-        <v>530</v>
+        <v>603.4</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12350</v>
+        <v>3250.3</v>
       </c>
       <c r="O5">
-        <v>27733</v>
+        <v>4232.5</v>
       </c>
       <c r="P5">
-        <v>10768</v>
+        <v>1461.2</v>
       </c>
       <c r="Q5">
-        <v>-521</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37163</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>37518</v>
+        <v>4713</v>
       </c>
       <c r="U5">
-        <v>1707</v>
+        <v>406.6</v>
       </c>
       <c r="V5">
-        <v>1962</v>
+        <v>274.60000000000002</v>
       </c>
       <c r="W5">
-        <v>-167</v>
+        <v>-22.6</v>
       </c>
       <c r="X5">
-        <v>-1986</v>
+        <v>-14.7</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>868</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-130.30000000000001</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5950.5</v>
       </c>
       <c r="E6">
-        <v>6047</v>
+        <v>966.2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1413</v>
       </c>
       <c r="G6">
-        <v>18594</v>
+        <v>5409.9</v>
       </c>
       <c r="H6">
-        <v>64543</v>
+        <v>8636.2999999999993</v>
       </c>
       <c r="I6">
-        <v>4370</v>
+        <v>1535.8</v>
       </c>
       <c r="J6">
-        <v>9208</v>
+        <v>810.4</v>
       </c>
       <c r="K6">
-        <v>750</v>
+        <v>235.8</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11956</v>
+        <v>3065.1</v>
       </c>
       <c r="O6">
-        <v>26462</v>
+        <v>4069.4</v>
       </c>
       <c r="P6">
-        <v>10014</v>
+        <v>1072.5999999999999</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-170.3</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="S6">
-        <v>202000</v>
+        <v>53000</v>
       </c>
       <c r="T6">
-        <v>38081</v>
+        <v>4566.8999999999996</v>
       </c>
       <c r="U6">
-        <v>1413</v>
+        <v>236.3</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>-403.1</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>-130.30000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>776</v>
+        <v>175.7</v>
       </c>
       <c r="D7">
-        <v>30798</v>
+        <v>5970.7</v>
       </c>
       <c r="E7">
-        <v>6109</v>
+        <v>1008.9</v>
       </c>
       <c r="F7">
-        <v>5113</v>
+        <v>1493.7</v>
       </c>
       <c r="G7">
-        <v>19891</v>
+        <v>5819.6</v>
       </c>
       <c r="H7">
-        <v>66006</v>
+        <v>9211.6</v>
       </c>
       <c r="I7">
-        <v>5240</v>
+        <v>1515.2</v>
       </c>
       <c r="J7">
-        <v>9206</v>
+        <v>810.2</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>664.8</v>
       </c>
       <c r="L7">
-        <v>-750</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-52</v>
+        <v>-0.2</v>
       </c>
       <c r="N7">
-        <v>13412</v>
+        <v>3480.5</v>
       </c>
       <c r="O7">
-        <v>27924</v>
+        <v>4475.8999999999996</v>
       </c>
       <c r="P7">
-        <v>9211</v>
+        <v>1501.4</v>
       </c>
       <c r="Q7">
-        <v>798</v>
+        <v>217.2</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>38082</v>
+        <v>4735.7</v>
       </c>
       <c r="U7">
-        <v>2211</v>
+        <v>453.5</v>
       </c>
       <c r="V7">
-        <v>2786</v>
+        <v>49.7</v>
       </c>
       <c r="W7">
-        <v>-211</v>
+        <v>-22.5</v>
       </c>
       <c r="X7">
-        <v>-1545</v>
+        <v>421.3</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>776</v>
+        <v>175.7</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>966</v>
+        <v>176.4</v>
       </c>
       <c r="D8">
-        <v>30714</v>
+        <v>5989.5</v>
       </c>
       <c r="E8">
-        <v>6124</v>
+        <v>1004.1</v>
       </c>
       <c r="F8">
-        <v>5449</v>
+        <v>1481.1</v>
       </c>
       <c r="G8">
-        <v>19299</v>
+        <v>5461.5</v>
       </c>
       <c r="H8">
-        <v>65589</v>
+        <v>8995.5</v>
       </c>
       <c r="I8">
-        <v>4903</v>
+        <v>1335.2</v>
       </c>
       <c r="J8">
-        <v>9208</v>
+        <v>807.9</v>
       </c>
       <c r="K8">
-        <v>200</v>
+        <v>488.4</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13136</v>
+        <v>3112.9</v>
       </c>
       <c r="O8">
-        <v>27676</v>
+        <v>4102.8</v>
       </c>
       <c r="P8">
-        <v>9413</v>
+        <v>1322.6</v>
       </c>
       <c r="Q8">
-        <v>-388</v>
+        <v>-120.2</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>37913</v>
+        <v>4892.7</v>
       </c>
       <c r="U8">
-        <v>1823</v>
+        <v>333.3</v>
       </c>
       <c r="V8">
-        <v>1231</v>
+        <v>298.60000000000002</v>
       </c>
       <c r="W8">
-        <v>-209</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-977</v>
+        <v>-198.7</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>966</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37527</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>1006</v>
+        <v>164.4</v>
       </c>
       <c r="D9">
-        <v>30227</v>
+        <v>5876.4</v>
       </c>
       <c r="E9">
-        <v>6407</v>
+        <v>986.3</v>
       </c>
       <c r="F9">
-        <v>5647</v>
+        <v>1481.3</v>
       </c>
       <c r="G9">
-        <v>18879</v>
+        <v>5431.7</v>
       </c>
       <c r="H9">
-        <v>64796</v>
+        <v>9053.7999999999993</v>
       </c>
       <c r="I9">
-        <v>5091</v>
+        <v>1560.8</v>
       </c>
       <c r="J9">
-        <v>9210</v>
+        <v>807.7</v>
       </c>
       <c r="K9">
-        <v>825</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13263</v>
+        <v>3015.4</v>
       </c>
       <c r="O9">
-        <v>27880</v>
+        <v>4002.9</v>
       </c>
       <c r="P9">
-        <v>10040</v>
+        <v>992.2</v>
       </c>
       <c r="Q9">
-        <v>-590</v>
+        <v>-116</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37527</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>36916</v>
+        <v>5050.8999999999996</v>
       </c>
       <c r="U9">
-        <v>1233</v>
+        <v>217.3</v>
       </c>
       <c r="V9">
-        <v>923</v>
+        <v>374.6</v>
       </c>
       <c r="W9">
-        <v>-207</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-1415</v>
+        <v>-337.7</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>1006</v>
+        <v>164.4</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37618</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>1116</v>
+        <v>200.1</v>
       </c>
       <c r="D10">
-        <v>31381</v>
+        <v>6344.8</v>
       </c>
       <c r="E10">
-        <v>6479</v>
+        <v>1019.3</v>
       </c>
       <c r="F10">
-        <v>6279</v>
+        <v>1612.7</v>
       </c>
       <c r="G10">
-        <v>20161</v>
+        <v>5982.1</v>
       </c>
       <c r="H10">
-        <v>66221</v>
+        <v>9645.2999999999993</v>
       </c>
       <c r="I10">
-        <v>5070</v>
+        <v>1707.9</v>
       </c>
       <c r="J10">
-        <v>9133</v>
+        <v>1076.3</v>
       </c>
       <c r="K10">
-        <v>690</v>
+        <v>4.8</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14150</v>
+        <v>3105.9</v>
       </c>
       <c r="O10">
-        <v>28568</v>
+        <v>4448.3</v>
       </c>
       <c r="P10">
-        <v>9828</v>
+        <v>1113.0999999999999</v>
       </c>
       <c r="Q10">
-        <v>142</v>
+        <v>483.1</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37618</v>
       </c>
       <c r="S10">
-        <v>203000</v>
+        <v>54000</v>
       </c>
       <c r="T10">
-        <v>37653</v>
+        <v>5197</v>
       </c>
       <c r="U10">
-        <v>1375</v>
+        <v>700.4</v>
       </c>
       <c r="V10">
-        <v>1731</v>
+        <v>481.9</v>
       </c>
       <c r="W10">
-        <v>-202</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-923</v>
+        <v>110.2</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1116</v>
+        <v>200.1</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37709</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>954</v>
+        <v>196.3</v>
       </c>
       <c r="D11">
-        <v>30751</v>
+        <v>6312.8</v>
       </c>
       <c r="E11">
-        <v>6635</v>
+        <v>1106.3</v>
       </c>
       <c r="F11">
-        <v>5577</v>
+        <v>1605.5</v>
       </c>
       <c r="G11">
-        <v>19727</v>
+        <v>5877.1</v>
       </c>
       <c r="H11">
-        <v>66068</v>
+        <v>9665.6</v>
       </c>
       <c r="I11">
-        <v>5506</v>
+        <v>1618.8</v>
       </c>
       <c r="J11">
-        <v>9352</v>
+        <v>776.1</v>
       </c>
       <c r="K11">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>-390</v>
+        <v>-4.8</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N11">
-        <v>13195</v>
+        <v>3249.7</v>
       </c>
       <c r="O11">
-        <v>27859</v>
+        <v>4286.8</v>
       </c>
       <c r="P11">
-        <v>9664</v>
+        <v>1108.2</v>
       </c>
       <c r="Q11">
-        <v>176</v>
+        <v>-52.3</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37709</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>38209</v>
+        <v>5378.8</v>
       </c>
       <c r="U11">
-        <v>1551</v>
+        <v>648.1</v>
       </c>
       <c r="V11">
-        <v>1640</v>
+        <v>183.6</v>
       </c>
       <c r="W11">
-        <v>-277</v>
+        <v>-22.6</v>
       </c>
       <c r="X11">
-        <v>-897</v>
+        <v>-15.3</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>954</v>
+        <v>196.3</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37800</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>1124</v>
+        <v>199.8</v>
       </c>
       <c r="D12">
-        <v>31248</v>
+        <v>6444.9</v>
       </c>
       <c r="E12">
-        <v>7093</v>
+        <v>1088.5999999999999</v>
       </c>
       <c r="F12">
-        <v>5841</v>
+        <v>1633.8</v>
       </c>
       <c r="G12">
-        <v>19869</v>
+        <v>5696.1</v>
       </c>
       <c r="H12">
-        <v>66284</v>
+        <v>9620.7000000000007</v>
       </c>
       <c r="I12">
-        <v>5178</v>
+        <v>1463.6</v>
       </c>
       <c r="J12">
-        <v>9358</v>
+        <v>775.9</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12690</v>
+        <v>3022.6</v>
       </c>
       <c r="O12">
-        <v>27378</v>
+        <v>4056.7</v>
       </c>
       <c r="P12">
-        <v>9376</v>
+        <v>1108</v>
       </c>
       <c r="Q12">
-        <v>-377</v>
+        <v>-81.3</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37800</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>38906</v>
+        <v>5564</v>
       </c>
       <c r="U12">
-        <v>1174</v>
+        <v>566.79999999999995</v>
       </c>
       <c r="V12">
-        <v>902</v>
+        <v>161.4</v>
       </c>
       <c r="W12">
-        <v>-276</v>
+        <v>-22.7</v>
       </c>
       <c r="X12">
-        <v>-751</v>
+        <v>-20.5</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1124</v>
+        <v>199.8</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37891</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1249</v>
+        <v>187.8</v>
       </c>
       <c r="D13">
-        <v>31932</v>
+        <v>6378.1</v>
       </c>
       <c r="E13">
-        <v>8035</v>
+        <v>1080.2</v>
       </c>
       <c r="F13">
-        <v>6027</v>
+        <v>1658.6</v>
       </c>
       <c r="G13">
-        <v>21432</v>
+        <v>6062.9</v>
       </c>
       <c r="H13">
-        <v>67805</v>
+        <v>10149.299999999999</v>
       </c>
       <c r="I13">
-        <v>5412</v>
+        <v>1699.6</v>
       </c>
       <c r="J13">
-        <v>8819</v>
+        <v>775.6</v>
       </c>
       <c r="K13">
-        <v>814</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15098</v>
+        <v>3378.1</v>
       </c>
       <c r="O13">
-        <v>29271</v>
+        <v>4405.7</v>
       </c>
       <c r="P13">
-        <v>10205</v>
+        <v>1107.7</v>
       </c>
       <c r="Q13">
-        <v>331</v>
+        <v>160.5</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37891</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>38534</v>
+        <v>5743.6</v>
       </c>
       <c r="U13">
-        <v>1505</v>
+        <v>727.3</v>
       </c>
       <c r="V13">
-        <v>1703</v>
+        <v>411.7</v>
       </c>
       <c r="W13">
-        <v>-276</v>
+        <v>-22.7</v>
       </c>
       <c r="X13">
-        <v>-850</v>
+        <v>-9.1</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-107</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>1249</v>
+        <v>187.8</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37989</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>1265</v>
+        <v>263.39999999999998</v>
       </c>
       <c r="D14">
-        <v>32830</v>
+        <v>7452.2</v>
       </c>
       <c r="E14">
-        <v>8729</v>
+        <v>1349.6</v>
       </c>
       <c r="F14">
-        <v>6339</v>
+        <v>1965.1</v>
       </c>
       <c r="G14">
-        <v>25325</v>
+        <v>6496.5</v>
       </c>
       <c r="H14">
-        <v>71526</v>
+        <v>10543.1</v>
       </c>
       <c r="I14">
-        <v>5548</v>
+        <v>1666.4</v>
       </c>
       <c r="J14">
-        <v>12841</v>
+        <v>753.1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15425</v>
+        <v>3489.2</v>
       </c>
       <c r="O14">
-        <v>33588</v>
+        <v>4521.3</v>
       </c>
       <c r="P14">
-        <v>13402</v>
+        <v>1076.3</v>
       </c>
       <c r="Q14">
-        <v>2584</v>
+        <v>115.9</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37989</v>
       </c>
       <c r="S14">
-        <v>130000</v>
+        <v>56000</v>
       </c>
       <c r="T14">
-        <v>37938</v>
+        <v>6021.8</v>
       </c>
       <c r="U14">
-        <v>4089</v>
+        <v>843.2</v>
       </c>
       <c r="V14">
-        <v>1538</v>
+        <v>212.2</v>
       </c>
       <c r="W14">
-        <v>-268</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>1261</v>
+        <v>-27.6</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>1265</v>
+        <v>263.39999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38080</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>1129</v>
+        <v>244.6</v>
       </c>
       <c r="D15">
-        <v>32689</v>
+        <v>6818.6</v>
       </c>
       <c r="E15">
-        <v>9086</v>
+        <v>1287.9000000000001</v>
       </c>
       <c r="F15">
-        <v>5942</v>
+        <v>1771.7</v>
       </c>
       <c r="G15">
-        <v>24460</v>
+        <v>6206.2</v>
       </c>
       <c r="H15">
-        <v>72822</v>
+        <v>10364.799999999999</v>
       </c>
       <c r="I15">
-        <v>5638</v>
+        <v>1635.1</v>
       </c>
       <c r="J15">
-        <v>12845</v>
+        <v>752.8</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-300.2</v>
       </c>
       <c r="N15">
-        <v>16213</v>
+        <v>3055.6</v>
       </c>
       <c r="O15">
-        <v>34610</v>
+        <v>4084.1</v>
       </c>
       <c r="P15">
-        <v>13410</v>
+        <v>776</v>
       </c>
       <c r="Q15">
-        <v>-1323</v>
+        <v>-191.7</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38080</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>38212</v>
+        <v>6280.7</v>
       </c>
       <c r="U15">
-        <v>2766</v>
+        <v>651.5</v>
       </c>
       <c r="V15">
-        <v>2172</v>
+        <v>322.3</v>
       </c>
       <c r="W15">
-        <v>-325</v>
+        <v>-26.2</v>
       </c>
       <c r="X15">
-        <v>-935</v>
+        <v>-302.7</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>1129</v>
+        <v>244.6</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38171</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>1246</v>
+        <v>234.5</v>
       </c>
       <c r="D16">
-        <v>34602</v>
+        <v>6943.1</v>
       </c>
       <c r="E16">
-        <v>9533</v>
+        <v>1216.3</v>
       </c>
       <c r="F16">
-        <v>6324</v>
+        <v>1826.5</v>
       </c>
       <c r="G16">
-        <v>24138</v>
+        <v>6177</v>
       </c>
       <c r="H16">
-        <v>72593</v>
+        <v>10513.5</v>
       </c>
       <c r="I16">
-        <v>5780</v>
+        <v>1656.4</v>
       </c>
       <c r="J16">
-        <v>12252</v>
+        <v>752.5</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16629</v>
+        <v>2959.8</v>
       </c>
       <c r="O16">
-        <v>34461</v>
+        <v>3984.7</v>
       </c>
       <c r="P16">
-        <v>13371</v>
+        <v>775.8</v>
       </c>
       <c r="Q16">
-        <v>-1154</v>
+        <v>-28.6</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38171</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>38132</v>
+        <v>6528.8</v>
       </c>
       <c r="U16">
-        <v>1612</v>
+        <v>622.9</v>
       </c>
       <c r="V16">
-        <v>897</v>
+        <v>236.9</v>
       </c>
       <c r="W16">
-        <v>-322</v>
+        <v>-26.3</v>
       </c>
       <c r="X16">
-        <v>-1423</v>
+        <v>15.2</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-70</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>1246</v>
+        <v>234.5</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38262</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>948</v>
+        <v>184.6</v>
       </c>
       <c r="D17">
-        <v>35021</v>
+        <v>7909.4</v>
       </c>
       <c r="E17">
-        <v>10828</v>
+        <v>1578.9</v>
       </c>
       <c r="F17">
-        <v>6468</v>
+        <v>2070.8000000000002</v>
       </c>
       <c r="G17">
-        <v>25337</v>
+        <v>7697.7</v>
       </c>
       <c r="H17">
-        <v>73576</v>
+        <v>14345.5</v>
       </c>
       <c r="I17">
-        <v>6033</v>
+        <v>2309.9</v>
       </c>
       <c r="J17">
-        <v>11709</v>
+        <v>1952.3</v>
       </c>
       <c r="K17">
-        <v>775</v>
+        <v>956.5</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18213</v>
+        <v>4851</v>
       </c>
       <c r="O17">
-        <v>35467</v>
+        <v>7631.4</v>
       </c>
       <c r="P17">
-        <v>13056</v>
+        <v>2932.1</v>
       </c>
       <c r="Q17">
-        <v>-480</v>
+        <v>-268.5</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38262</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>38109</v>
+        <v>6714.1</v>
       </c>
       <c r="U17">
-        <v>1132</v>
+        <v>354.4</v>
       </c>
       <c r="V17">
-        <v>1645</v>
+        <v>159.4</v>
       </c>
       <c r="W17">
-        <v>-324</v>
+        <v>-26.5</v>
       </c>
       <c r="X17">
-        <v>-1775</v>
+        <v>2165.3000000000002</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>948</v>
+        <v>184.6</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38353</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>255.1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>8923.2000000000007</v>
       </c>
       <c r="E18">
-        <v>9687</v>
+        <v>1764.2</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2362.1999999999998</v>
       </c>
       <c r="G18">
-        <v>25983</v>
+        <v>7919.5</v>
       </c>
       <c r="H18">
-        <v>74187</v>
+        <v>14546.8</v>
       </c>
       <c r="I18">
-        <v>6547</v>
+        <v>2275.9</v>
       </c>
       <c r="J18">
-        <v>11630</v>
+        <v>1925.9</v>
       </c>
       <c r="K18">
-        <v>685</v>
+        <v>885.6</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19027</v>
+        <v>4858.8</v>
       </c>
       <c r="O18">
-        <v>36224</v>
+        <v>7559.6</v>
       </c>
       <c r="P18">
-        <v>12890</v>
+        <v>2842.1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>37.9</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38353</v>
       </c>
       <c r="S18">
-        <v>137800</v>
+        <v>78500</v>
       </c>
       <c r="T18">
-        <v>37963</v>
+        <v>6987.2</v>
       </c>
       <c r="U18">
-        <v>2481</v>
+        <v>392.3</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>195.6</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>-79.599999999999994</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,125 +2259,125 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>255.1</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38444</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>1221</v>
+        <v>289.7</v>
       </c>
       <c r="D19">
-        <v>36332</v>
+        <v>9182.2000000000007</v>
       </c>
       <c r="E19">
-        <v>10162</v>
+        <v>1795.2</v>
       </c>
       <c r="F19">
-        <v>6164</v>
+        <v>2380.8000000000002</v>
       </c>
       <c r="G19">
-        <v>25622</v>
+        <v>8017.7</v>
       </c>
       <c r="H19">
-        <v>73930</v>
+        <v>14818</v>
       </c>
       <c r="I19">
-        <v>6431</v>
+        <v>2130.6999999999998</v>
       </c>
       <c r="J19">
-        <v>11689</v>
+        <v>1633.1</v>
       </c>
       <c r="K19">
-        <v>500</v>
+        <v>1001.1</v>
       </c>
       <c r="L19">
-        <v>-185</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
       <c r="N19">
-        <v>19713</v>
+        <v>4994</v>
       </c>
       <c r="O19">
-        <v>36935</v>
+        <v>7417.2</v>
       </c>
       <c r="P19">
-        <v>12762</v>
+        <v>2971.7</v>
       </c>
       <c r="Q19">
-        <v>-963</v>
+        <v>-68.5</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38444</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>36995</v>
+        <v>7400.8</v>
       </c>
       <c r="U19">
-        <v>1518</v>
+        <v>323.8</v>
       </c>
       <c r="V19">
-        <v>1984</v>
+        <v>42.8</v>
       </c>
       <c r="W19">
-        <v>-399</v>
+        <v>-29.1</v>
       </c>
       <c r="X19">
-        <v>-2406</v>
+        <v>204.6</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-97</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>1221</v>
+        <v>289.7</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38535</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>1272</v>
+        <v>275.89999999999998</v>
       </c>
       <c r="D20">
-        <v>37169</v>
+        <v>9121.6</v>
       </c>
       <c r="E20">
-        <v>10892</v>
+        <v>1703.8</v>
       </c>
       <c r="F20">
-        <v>6402</v>
+        <v>2417.4</v>
       </c>
       <c r="G20">
-        <v>26401</v>
+        <v>7794.3</v>
       </c>
       <c r="H20">
-        <v>74668</v>
+        <v>14765.8</v>
       </c>
       <c r="I20">
-        <v>6370</v>
+        <v>2054.8000000000002</v>
       </c>
       <c r="J20">
-        <v>11633</v>
+        <v>1629.7</v>
       </c>
       <c r="K20">
-        <v>1488</v>
+        <v>875</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20386</v>
+        <v>4691.8999999999996</v>
       </c>
       <c r="O20">
-        <v>37535</v>
+        <v>7083.3</v>
       </c>
       <c r="P20">
-        <v>13145</v>
+        <v>2842.8</v>
       </c>
       <c r="Q20">
-        <v>-274</v>
+        <v>90.3</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38535</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>37133</v>
+        <v>7682.5</v>
       </c>
       <c r="U20">
-        <v>1244</v>
+        <v>414.1</v>
       </c>
       <c r="V20">
-        <v>1037</v>
+        <v>558.29999999999995</v>
       </c>
       <c r="W20">
-        <v>-395</v>
+        <v>-29.4</v>
       </c>
       <c r="X20">
-        <v>-761</v>
+        <v>-131.9</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>1272</v>
+        <v>275.89999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38626</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>1246</v>
+        <v>252.7</v>
       </c>
       <c r="D21">
-        <v>38644</v>
+        <v>8970.4</v>
       </c>
       <c r="E21">
-        <v>12804</v>
+        <v>1783.2</v>
       </c>
       <c r="F21">
-        <v>6661</v>
+        <v>2401</v>
       </c>
       <c r="G21">
-        <v>30753</v>
+        <v>8159.9</v>
       </c>
       <c r="H21">
-        <v>92362</v>
+        <v>15225.9</v>
       </c>
       <c r="I21">
-        <v>7064</v>
+        <v>2324.9</v>
       </c>
       <c r="J21">
-        <v>26771</v>
+        <v>1627.9</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>825.5</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21434</v>
+        <v>4919.5</v>
       </c>
       <c r="O21">
-        <v>55182</v>
+        <v>7270.3</v>
       </c>
       <c r="P21">
-        <v>27222</v>
+        <v>2790.7</v>
       </c>
       <c r="Q21">
-        <v>1646</v>
+        <v>-45.9</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38626</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>37180</v>
+        <v>7955.6</v>
       </c>
       <c r="U21">
-        <v>2890</v>
+        <v>368.2</v>
       </c>
       <c r="V21">
-        <v>1820</v>
+        <v>250.4</v>
       </c>
       <c r="W21">
-        <v>-391</v>
+        <v>-29.4</v>
       </c>
       <c r="X21">
-        <v>9743</v>
+        <v>-39.700000000000003</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>1246</v>
+        <v>252.7</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>1498</v>
+        <v>406.4</v>
       </c>
       <c r="D22">
-        <v>41146</v>
+        <v>9732</v>
       </c>
       <c r="E22">
-        <v>11888</v>
+        <v>1839.6</v>
       </c>
       <c r="F22">
-        <v>7301</v>
+        <v>2702</v>
       </c>
       <c r="G22">
-        <v>29158</v>
+        <v>8392.7000000000007</v>
       </c>
       <c r="H22">
-        <v>92437</v>
+        <v>15283.4</v>
       </c>
       <c r="I22">
-        <v>7490</v>
+        <v>2467.5</v>
       </c>
       <c r="J22">
-        <v>26267</v>
+        <v>1594.1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>253.4</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23169</v>
+        <v>4583.8999999999996</v>
       </c>
       <c r="O22">
-        <v>55195</v>
+        <v>6952.2</v>
       </c>
       <c r="P22">
-        <v>27464</v>
+        <v>2189.1</v>
       </c>
       <c r="Q22">
-        <v>-431</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>155000</v>
+        <v>80000</v>
       </c>
       <c r="T22">
-        <v>37242</v>
+        <v>8331.2000000000007</v>
       </c>
       <c r="U22">
-        <v>2459</v>
+        <v>513.4</v>
       </c>
       <c r="V22">
-        <v>3571</v>
+        <v>760.6</v>
       </c>
       <c r="W22">
-        <v>-391</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-1570</v>
+        <v>-612.4</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>1498</v>
+        <v>406.4</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38808</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>1146</v>
+        <v>329.6</v>
       </c>
       <c r="D23">
-        <v>43215</v>
+        <v>9979.2000000000007</v>
       </c>
       <c r="E23">
-        <v>13025</v>
+        <v>2015</v>
       </c>
       <c r="F23">
-        <v>6748</v>
+        <v>2649</v>
       </c>
       <c r="G23">
-        <v>29413</v>
+        <v>8431.2999999999993</v>
       </c>
       <c r="H23">
-        <v>92634</v>
+        <v>15448.2</v>
       </c>
       <c r="I23">
-        <v>7361</v>
+        <v>2437.6</v>
       </c>
       <c r="J23">
-        <v>26267</v>
+        <v>1592.2</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-302.5</v>
       </c>
       <c r="N23">
-        <v>24537</v>
+        <v>4374.8999999999996</v>
       </c>
       <c r="O23">
-        <v>56603</v>
+        <v>6728.4</v>
       </c>
       <c r="P23">
-        <v>27469</v>
+        <v>2145.1999999999998</v>
       </c>
       <c r="Q23">
-        <v>-680</v>
+        <v>-126.3</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38808</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>36031</v>
+        <v>8719.7999999999993</v>
       </c>
       <c r="U23">
-        <v>1779</v>
+        <v>387.1</v>
       </c>
       <c r="V23">
-        <v>2439</v>
+        <v>171.7</v>
       </c>
       <c r="W23">
-        <v>-470</v>
+        <v>-31.6</v>
       </c>
       <c r="X23">
-        <v>-2487</v>
+        <v>-3.7</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>1146</v>
+        <v>329.6</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38899</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>924</v>
+        <v>337.9</v>
       </c>
       <c r="D24">
-        <v>43725</v>
+        <v>10564.4</v>
       </c>
       <c r="E24">
-        <v>13183</v>
+        <v>2031.5</v>
       </c>
       <c r="F24">
-        <v>7021</v>
+        <v>2794.7</v>
       </c>
       <c r="G24">
-        <v>29448</v>
+        <v>9549.7000000000007</v>
       </c>
       <c r="H24">
-        <v>92748</v>
+        <v>20301.400000000001</v>
       </c>
       <c r="I24">
-        <v>7351</v>
+        <v>2707.1</v>
       </c>
       <c r="J24">
-        <v>25600</v>
+        <v>1780.2</v>
       </c>
       <c r="K24">
-        <v>745</v>
+        <v>4461.2</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>26569</v>
+        <v>8632.1</v>
       </c>
       <c r="O24">
-        <v>57982</v>
+        <v>11219.4</v>
       </c>
       <c r="P24">
-        <v>28636</v>
+        <v>6289.5</v>
       </c>
       <c r="Q24">
-        <v>-652</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38899</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>34766</v>
+        <v>9082</v>
       </c>
       <c r="U24">
-        <v>1127</v>
+        <v>532.29999999999995</v>
       </c>
       <c r="V24">
-        <v>1647</v>
+        <v>551.9</v>
       </c>
       <c r="W24">
-        <v>-459</v>
+        <v>-31.7</v>
       </c>
       <c r="X24">
-        <v>-1702</v>
+        <v>3943.4</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>924</v>
+        <v>337.9</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>1540</v>
+        <v>284.2</v>
       </c>
       <c r="D25">
-        <v>44615</v>
+        <v>11208.8</v>
       </c>
       <c r="E25">
-        <v>13625</v>
+        <v>2197.4</v>
       </c>
       <c r="F25">
-        <v>7497</v>
+        <v>3035.6</v>
       </c>
       <c r="G25">
-        <v>30939</v>
+        <v>9943.1</v>
       </c>
       <c r="H25">
-        <v>94156</v>
+        <v>21127.4</v>
       </c>
       <c r="I25">
-        <v>7584</v>
+        <v>2816.7</v>
       </c>
       <c r="J25">
-        <v>25610</v>
+        <v>3279.9</v>
       </c>
       <c r="K25">
-        <v>340</v>
+        <v>3160.2</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>26741</v>
+        <v>7616.2</v>
       </c>
       <c r="O25">
-        <v>58202</v>
+        <v>11693</v>
       </c>
       <c r="P25">
-        <v>26733</v>
+        <v>6486.5</v>
       </c>
       <c r="Q25">
-        <v>1062</v>
+        <v>-137.69999999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>35954</v>
+        <v>9434.4</v>
       </c>
       <c r="U25">
-        <v>2189</v>
+        <v>394.6</v>
       </c>
       <c r="V25">
-        <v>3934</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="W25">
-        <v>-455</v>
+        <v>-31.8</v>
       </c>
       <c r="X25">
-        <v>-2451</v>
+        <v>251.3</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>1540</v>
+        <v>284.2</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>1707</v>
+        <v>417.2</v>
       </c>
       <c r="D26">
-        <v>45971</v>
+        <v>12068.3</v>
       </c>
       <c r="E26">
-        <v>12164</v>
+        <v>2381.6999999999998</v>
       </c>
       <c r="F26">
-        <v>7637</v>
+        <v>3317.1</v>
       </c>
       <c r="G26">
-        <v>31042</v>
+        <v>10395.799999999999</v>
       </c>
       <c r="H26">
-        <v>94462</v>
+        <v>20574.099999999999</v>
       </c>
       <c r="I26">
-        <v>7946</v>
+        <v>2521.5</v>
       </c>
       <c r="J26">
-        <v>25615</v>
+        <v>2870.4</v>
       </c>
       <c r="K26">
-        <v>1874</v>
+        <v>1842.7</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>26250</v>
+        <v>7005</v>
       </c>
       <c r="O26">
-        <v>57628</v>
+        <v>10656.5</v>
       </c>
       <c r="P26">
-        <v>27531</v>
+        <v>5057.3999999999996</v>
       </c>
       <c r="Q26">
-        <v>1182</v>
+        <v>136.1</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="S26">
-        <v>158000</v>
+        <v>96000</v>
       </c>
       <c r="T26">
-        <v>36834</v>
+        <v>9917.6</v>
       </c>
       <c r="U26">
-        <v>3371</v>
+        <v>530.70000000000005</v>
       </c>
       <c r="V26">
-        <v>2121</v>
+        <v>749.2</v>
       </c>
       <c r="W26">
-        <v>-456</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-121</v>
+        <v>-1322.9</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>1707</v>
+        <v>417.2</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>952</v>
+        <v>408.9</v>
       </c>
       <c r="D27">
-        <v>44514</v>
+        <v>13188.6</v>
       </c>
       <c r="E27">
-        <v>12114</v>
+        <v>4485.3999999999996</v>
       </c>
       <c r="F27">
-        <v>6571</v>
+        <v>3303.2</v>
       </c>
       <c r="G27">
-        <v>29457</v>
+        <v>13232.1</v>
       </c>
       <c r="H27">
-        <v>92670</v>
+        <v>51035.8</v>
       </c>
       <c r="I27">
-        <v>7344</v>
+        <v>3371.1</v>
       </c>
       <c r="J27">
-        <v>25622</v>
+        <v>2895.4</v>
       </c>
       <c r="K27">
-        <v>1768</v>
+        <v>3072.8</v>
       </c>
       <c r="L27">
-        <v>-106</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-18.3</v>
       </c>
       <c r="N27">
-        <v>27288</v>
+        <v>12611.3</v>
       </c>
       <c r="O27">
-        <v>58828</v>
+        <v>17004.400000000001</v>
       </c>
       <c r="P27">
-        <v>27433</v>
+        <v>6810.8</v>
       </c>
       <c r="Q27">
-        <v>-1137</v>
+        <v>180</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>33842</v>
+        <v>34031.4</v>
       </c>
       <c r="U27">
-        <v>2217</v>
+        <v>710.7</v>
       </c>
       <c r="V27">
-        <v>3533</v>
+        <v>707.7</v>
       </c>
       <c r="W27">
-        <v>-516</v>
+        <v>-40.299999999999997</v>
       </c>
       <c r="X27">
-        <v>-4133</v>
+        <v>1736.1</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>952</v>
+        <v>408.9</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>1098</v>
+        <v>723.6</v>
       </c>
       <c r="D28">
-        <v>45685</v>
+        <v>20703.3</v>
       </c>
       <c r="E28">
-        <v>12274</v>
+        <v>4283.7</v>
       </c>
       <c r="F28">
-        <v>6931</v>
+        <v>4158.5</v>
       </c>
       <c r="G28">
-        <v>29404</v>
+        <v>13530.4</v>
       </c>
       <c r="H28">
-        <v>92525</v>
+        <v>54606.1</v>
       </c>
       <c r="I28">
-        <v>7874</v>
+        <v>3352.3</v>
       </c>
       <c r="J28">
-        <v>25622</v>
+        <v>8395.6</v>
       </c>
       <c r="K28">
-        <v>1100</v>
+        <v>660.4</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>26857</v>
+        <v>9515.6</v>
       </c>
       <c r="O28">
-        <v>58378</v>
+        <v>22581.200000000001</v>
       </c>
       <c r="P28">
-        <v>26764</v>
+        <v>9396.1</v>
       </c>
       <c r="Q28">
-        <v>-100</v>
+        <v>101.6</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>34147</v>
+        <v>32024.9</v>
       </c>
       <c r="U28">
-        <v>2094</v>
+        <v>812.3</v>
       </c>
       <c r="V28">
-        <v>1999</v>
+        <v>719.5</v>
       </c>
       <c r="W28">
-        <v>-512</v>
+        <v>-92.1</v>
       </c>
       <c r="X28">
-        <v>-1502</v>
+        <v>-176.2</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>8</v>
+        <v>-96</v>
       </c>
       <c r="AA28">
-        <v>1098</v>
+        <v>723.6</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>1285</v>
+        <v>689.5</v>
       </c>
       <c r="D29">
-        <v>46181</v>
+        <v>20495.2</v>
       </c>
       <c r="E29">
-        <v>12440</v>
+        <v>4512.8999999999996</v>
       </c>
       <c r="F29">
-        <v>7119</v>
+        <v>4195.2</v>
       </c>
       <c r="G29">
-        <v>29923</v>
+        <v>13735.4</v>
       </c>
       <c r="H29">
-        <v>92853</v>
+        <v>54891.6</v>
       </c>
       <c r="I29">
-        <v>7899</v>
+        <v>3414.2</v>
       </c>
       <c r="J29">
-        <v>23386</v>
+        <v>8395</v>
       </c>
       <c r="K29">
-        <v>110</v>
+        <v>425</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>28513</v>
+        <v>9082.7999999999993</v>
       </c>
       <c r="O29">
-        <v>57985</v>
+        <v>22105.9</v>
       </c>
       <c r="P29">
-        <v>25789</v>
+        <v>9160.2000000000007</v>
       </c>
       <c r="Q29">
-        <v>392</v>
+        <v>-85.2</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>34868</v>
+        <v>32785.699999999997</v>
       </c>
       <c r="U29">
-        <v>2485</v>
+        <v>727.1</v>
       </c>
       <c r="V29">
-        <v>2611</v>
+        <v>445.5</v>
       </c>
       <c r="W29">
-        <v>-511</v>
+        <v>-88.2</v>
       </c>
       <c r="X29">
-        <v>-1786</v>
+        <v>-184.5</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="AA29">
-        <v>1285</v>
+        <v>689.5</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39445</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>3287</v>
+        <v>815</v>
       </c>
       <c r="D30">
-        <v>48385</v>
+        <v>21942.400000000001</v>
       </c>
       <c r="E30">
-        <v>13035</v>
+        <v>4579.6000000000004</v>
       </c>
       <c r="F30">
-        <v>7888</v>
+        <v>4450.8</v>
       </c>
       <c r="G30">
-        <v>31229</v>
+        <v>14149.4</v>
       </c>
       <c r="H30">
-        <v>95131</v>
+        <v>54721.9</v>
       </c>
       <c r="I30">
-        <v>8863</v>
+        <v>3593</v>
       </c>
       <c r="J30">
-        <v>21511</v>
+        <v>8349.7000000000007</v>
       </c>
       <c r="K30">
-        <v>1276</v>
+        <v>2085</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>30648</v>
+        <v>10766.3</v>
       </c>
       <c r="O30">
-        <v>57436</v>
+        <v>23400</v>
       </c>
       <c r="P30">
-        <v>27025</v>
+        <v>10481.9</v>
       </c>
       <c r="Q30">
-        <v>-775</v>
+        <v>329.5</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39445</v>
       </c>
       <c r="S30">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="T30">
-        <v>37695</v>
+        <v>31321.9</v>
       </c>
       <c r="U30">
-        <v>1696</v>
+        <v>1056.5999999999999</v>
       </c>
       <c r="V30">
-        <v>-136</v>
+        <v>1357</v>
       </c>
       <c r="W30">
-        <v>-510</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>670</v>
+        <v>-997.5</v>
       </c>
       <c r="Y30">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>-97</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>3287</v>
+        <v>815</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>998</v>
+        <v>748.5</v>
       </c>
       <c r="D31">
-        <v>45693</v>
+        <v>21326</v>
       </c>
       <c r="E31">
-        <v>13964</v>
+        <v>4623.5</v>
       </c>
       <c r="F31">
-        <v>6859</v>
+        <v>4293</v>
       </c>
       <c r="G31">
-        <v>71798</v>
+        <v>13914.2</v>
       </c>
       <c r="H31">
-        <v>135139</v>
+        <v>54567</v>
       </c>
       <c r="I31">
-        <v>7741</v>
+        <v>3405</v>
       </c>
       <c r="J31">
-        <v>61552</v>
+        <v>8349</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1341.9</v>
       </c>
       <c r="L31">
-        <v>-1276</v>
+        <v>-743.1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="N31">
-        <v>30248</v>
+        <v>9780.1</v>
       </c>
       <c r="O31">
-        <v>96462</v>
+        <v>22415.200000000001</v>
       </c>
       <c r="P31">
-        <v>65094</v>
+        <v>9738.2000000000007</v>
       </c>
       <c r="Q31">
-        <v>40364</v>
+        <v>-238.4</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>38677</v>
+        <v>32151.8</v>
       </c>
       <c r="U31">
-        <v>42023</v>
+        <v>818.2</v>
       </c>
       <c r="V31">
-        <v>2355</v>
+        <v>740.8</v>
       </c>
       <c r="W31">
-        <v>-508</v>
+        <v>-85.9</v>
       </c>
       <c r="X31">
-        <v>38140</v>
+        <v>-632.4</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-23</v>
+        <v>27.5</v>
       </c>
       <c r="AA31">
-        <v>998</v>
+        <v>748.5</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>-2563</v>
+        <v>774.8</v>
       </c>
       <c r="D32">
-        <v>46708</v>
+        <v>21140.3</v>
       </c>
       <c r="E32">
-        <v>13649</v>
+        <v>4457.7</v>
       </c>
       <c r="F32">
-        <v>7201</v>
+        <v>4373.2</v>
       </c>
       <c r="G32">
-        <v>73790</v>
+        <v>13605.4</v>
       </c>
       <c r="H32">
-        <v>133290</v>
+        <v>54467</v>
       </c>
       <c r="I32">
-        <v>8570</v>
+        <v>3287</v>
       </c>
       <c r="J32">
-        <v>61569</v>
+        <v>8348.2999999999993</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>31493</v>
+        <v>8810.7999999999993</v>
       </c>
       <c r="O32">
-        <v>97679</v>
+        <v>21456.799999999999</v>
       </c>
       <c r="P32">
-        <v>65109</v>
+        <v>9375.6</v>
       </c>
       <c r="Q32">
-        <v>1793</v>
+        <v>-202.5</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>35611</v>
+        <v>33010.199999999997</v>
       </c>
       <c r="U32">
-        <v>43815</v>
+        <v>615.70000000000005</v>
       </c>
       <c r="V32">
-        <v>2934</v>
+        <v>651.29999999999995</v>
       </c>
       <c r="W32">
-        <v>-510</v>
+        <v>-86.2</v>
       </c>
       <c r="X32">
-        <v>-520</v>
+        <v>-337.9</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>7</v>
+        <v>-18</v>
       </c>
       <c r="AA32">
-        <v>-2563</v>
+        <v>774.8</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39718</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1390</v>
+        <v>736</v>
       </c>
       <c r="D33">
-        <v>47269</v>
+        <v>20863.400000000001</v>
       </c>
       <c r="E33">
-        <v>14249</v>
+        <v>4799.5</v>
       </c>
       <c r="F33">
-        <v>7328</v>
+        <v>4400.6000000000004</v>
       </c>
       <c r="G33">
-        <v>71981</v>
+        <v>14968.8</v>
       </c>
       <c r="H33">
-        <v>131506</v>
+        <v>55951.5</v>
       </c>
       <c r="I33">
-        <v>8813</v>
+        <v>3284.4</v>
       </c>
       <c r="J33">
-        <v>60747</v>
+        <v>8047.5</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>29460</v>
+        <v>9883.5</v>
       </c>
       <c r="O33">
-        <v>94884</v>
+        <v>22215.7</v>
       </c>
       <c r="P33">
-        <v>62886</v>
+        <v>9726.9</v>
       </c>
       <c r="Q33">
-        <v>-2230</v>
+        <v>666.6</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39718</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>36622</v>
+        <v>33735.800000000003</v>
       </c>
       <c r="U33">
-        <v>41587</v>
+        <v>1282.3</v>
       </c>
       <c r="V33">
-        <v>1097</v>
+        <v>786.2</v>
       </c>
       <c r="W33">
-        <v>-510</v>
+        <v>-98.4</v>
       </c>
       <c r="X33">
-        <v>-2693</v>
+        <v>290.8</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-38</v>
+        <v>18</v>
       </c>
       <c r="AA33">
-        <v>1390</v>
+        <v>736</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>-419</v>
+        <v>952.7</v>
       </c>
       <c r="D34">
-        <v>54249</v>
+        <v>24142.3</v>
       </c>
       <c r="E34">
-        <v>16071</v>
+        <v>5384</v>
       </c>
       <c r="F34">
-        <v>9490</v>
+        <v>5223.2</v>
       </c>
       <c r="G34">
-        <v>45243</v>
+        <v>16526</v>
       </c>
       <c r="H34">
-        <v>196456</v>
+        <v>60960</v>
       </c>
       <c r="I34">
-        <v>8925</v>
+        <v>3801</v>
       </c>
       <c r="J34">
-        <v>70802</v>
+        <v>8057</v>
       </c>
       <c r="K34">
-        <v>720</v>
+        <v>3044</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>44009</v>
+        <v>13490</v>
       </c>
       <c r="O34">
-        <v>137913</v>
+        <v>26386</v>
       </c>
       <c r="P34">
-        <v>73429</v>
+        <v>11754</v>
       </c>
       <c r="Q34">
-        <v>-37532</v>
+        <v>70.3</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>295000</v>
+        <v>215000</v>
       </c>
       <c r="T34">
-        <v>58543</v>
+        <v>34574</v>
       </c>
       <c r="U34">
-        <v>4059</v>
+        <v>1352</v>
       </c>
       <c r="V34">
-        <v>2479</v>
+        <v>1768.7</v>
       </c>
       <c r="W34">
-        <v>-510</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>1892</v>
+        <v>1608.5</v>
       </c>
       <c r="Y34">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>179</v>
+        <v>0.5</v>
       </c>
       <c r="AA34">
-        <v>-419</v>
+        <v>952.7</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1421</v>
+        <v>738</v>
       </c>
       <c r="D35">
-        <v>61397</v>
+        <v>23394</v>
       </c>
       <c r="E35">
-        <v>18641</v>
+        <v>5358.2</v>
       </c>
       <c r="F35">
-        <v>10691</v>
+        <v>4748</v>
       </c>
       <c r="G35">
-        <v>47857</v>
+        <v>16088.6</v>
       </c>
       <c r="H35">
-        <v>219768</v>
+        <v>60656.1</v>
       </c>
       <c r="I35">
-        <v>8290</v>
+        <v>3566.3</v>
       </c>
       <c r="J35">
-        <v>67353</v>
+        <v>9056.2999999999993</v>
       </c>
       <c r="K35">
-        <v>3005</v>
+        <v>1419.9</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-1626</v>
       </c>
       <c r="M35">
-        <v>-882</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>50631</v>
+        <v>11498.8</v>
       </c>
       <c r="O35">
-        <v>159762</v>
+        <v>25366.9</v>
       </c>
       <c r="P35">
-        <v>95550</v>
+        <v>11127.6</v>
       </c>
       <c r="Q35">
-        <v>1873</v>
+        <v>-355</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>60006</v>
+        <v>35289.199999999997</v>
       </c>
       <c r="U35">
-        <v>5896</v>
+        <v>997.4</v>
       </c>
       <c r="V35">
-        <v>1948</v>
+        <v>771</v>
       </c>
       <c r="W35">
-        <v>-649</v>
+        <v>-110</v>
       </c>
       <c r="X35">
-        <v>816</v>
+        <v>-681</v>
       </c>
       <c r="Y35">
-        <v>19496</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>1421</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1936</v>
+        <v>887</v>
       </c>
       <c r="D36">
-        <v>63138</v>
+        <v>24871</v>
       </c>
       <c r="E36">
-        <v>17422</v>
+        <v>5519.8</v>
       </c>
       <c r="F36">
-        <v>11081</v>
+        <v>5052</v>
       </c>
       <c r="G36">
-        <v>46901</v>
+        <v>16771.599999999999</v>
       </c>
       <c r="H36">
-        <v>218904</v>
+        <v>61036</v>
       </c>
       <c r="I36">
-        <v>9160</v>
+        <v>3599.9</v>
       </c>
       <c r="J36">
-        <v>66382</v>
+        <v>7305.2</v>
       </c>
       <c r="K36">
-        <v>446</v>
+        <v>1328</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>49376</v>
+        <v>12763.8</v>
       </c>
       <c r="O36">
-        <v>157305</v>
+        <v>24884.400000000001</v>
       </c>
       <c r="P36">
-        <v>91923</v>
+        <v>11036.8</v>
       </c>
       <c r="Q36">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>61599</v>
+        <v>36151.599999999999</v>
       </c>
       <c r="U36">
-        <v>6063</v>
+        <v>1225.3</v>
       </c>
       <c r="V36">
-        <v>5338</v>
+        <v>552</v>
       </c>
       <c r="W36">
-        <v>-657</v>
+        <v>-111</v>
       </c>
       <c r="X36">
-        <v>-4258</v>
+        <v>-161</v>
       </c>
       <c r="Y36">
-        <v>19408</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-215</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>1936</v>
+        <v>886</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1530</v>
+        <v>1021</v>
       </c>
       <c r="D37">
-        <v>64547</v>
+        <v>24642</v>
       </c>
       <c r="E37">
-        <v>17782</v>
+        <v>5692.9</v>
       </c>
       <c r="F37">
-        <v>11260</v>
+        <v>5012</v>
       </c>
       <c r="G37">
-        <v>48185</v>
+        <v>17397.900000000001</v>
       </c>
       <c r="H37">
-        <v>220113</v>
+        <v>61879.3</v>
       </c>
       <c r="I37">
-        <v>9442</v>
+        <v>3963.2</v>
       </c>
       <c r="J37">
-        <v>63615</v>
+        <v>8756.2000000000007</v>
       </c>
       <c r="K37">
-        <v>1070</v>
+        <v>1100</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>52544</v>
+        <v>12700.4</v>
       </c>
       <c r="O37">
-        <v>157180</v>
+        <v>26204.400000000001</v>
       </c>
       <c r="P37">
-        <v>89678</v>
+        <v>11960.1</v>
       </c>
       <c r="Q37">
-        <v>-869</v>
+        <v>-95</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>62933</v>
+        <v>35674.9</v>
       </c>
       <c r="U37">
-        <v>5193</v>
+        <v>1130.5999999999999</v>
       </c>
       <c r="V37">
-        <v>2928</v>
+        <v>907</v>
       </c>
       <c r="W37">
-        <v>-646</v>
+        <v>-110</v>
       </c>
       <c r="X37">
-        <v>-2968</v>
+        <v>-565</v>
       </c>
       <c r="Y37">
-        <v>19417</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-119</v>
+        <v>-5</v>
       </c>
       <c r="AA37">
-        <v>1530</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>1747</v>
+        <v>1050</v>
       </c>
       <c r="D38">
-        <v>66683</v>
+        <v>25822</v>
       </c>
       <c r="E38">
-        <v>17236</v>
+        <v>5457</v>
       </c>
       <c r="F38">
-        <v>11485</v>
+        <v>5568</v>
       </c>
       <c r="G38">
-        <v>50302</v>
+        <v>17537</v>
       </c>
       <c r="H38">
-        <v>222449</v>
+        <v>61641</v>
       </c>
       <c r="I38">
-        <v>10492</v>
+        <v>3560</v>
       </c>
       <c r="J38">
-        <v>63918</v>
+        <v>8756</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>53303</v>
+        <v>12300</v>
       </c>
       <c r="O38">
-        <v>158279</v>
+        <v>25836</v>
       </c>
       <c r="P38">
-        <v>89002</v>
+        <v>11175</v>
       </c>
       <c r="Q38">
-        <v>485</v>
+        <v>-44</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>290000</v>
+        <v>211000</v>
       </c>
       <c r="T38">
-        <v>64170</v>
+        <v>35805</v>
       </c>
       <c r="U38">
-        <v>5683</v>
+        <v>1086</v>
       </c>
       <c r="V38">
-        <v>2634</v>
+        <v>1805</v>
       </c>
       <c r="W38">
-        <v>-651</v>
+        <v>-108</v>
       </c>
       <c r="X38">
-        <v>-1440</v>
+        <v>-1825</v>
       </c>
       <c r="Y38">
-        <v>19707</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>1747</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>2007</v>
+        <v>771</v>
       </c>
       <c r="D39">
-        <v>66593</v>
+        <v>23760</v>
       </c>
       <c r="E39">
-        <v>20199</v>
+        <v>5149</v>
       </c>
       <c r="F39">
-        <v>11859</v>
+        <v>4746</v>
       </c>
       <c r="G39">
-        <v>58958</v>
+        <v>17155</v>
       </c>
       <c r="H39">
-        <v>230639</v>
+        <v>61284</v>
       </c>
       <c r="I39">
-        <v>10223</v>
+        <v>4043</v>
       </c>
       <c r="J39">
-        <v>64816</v>
+        <v>8454</v>
       </c>
       <c r="K39">
-        <v>255</v>
+        <v>515</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1008</v>
+        <v>-1</v>
       </c>
       <c r="N39">
-        <v>59560</v>
+        <v>12337</v>
       </c>
       <c r="O39">
-        <v>165165</v>
+        <v>25554</v>
       </c>
       <c r="P39">
-        <v>92319</v>
+        <v>11373</v>
       </c>
       <c r="Q39">
-        <v>4383</v>
+        <v>-39</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>65474</v>
+        <v>35730</v>
       </c>
       <c r="U39">
-        <v>10081</v>
+        <v>1047</v>
       </c>
       <c r="V39">
-        <v>3305</v>
+        <v>1060</v>
       </c>
       <c r="W39">
-        <v>-652</v>
+        <v>-122</v>
       </c>
       <c r="X39">
-        <v>2675</v>
+        <v>-702</v>
       </c>
       <c r="Y39">
-        <v>19658</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-247</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>2007</v>
+        <v>771</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>2975</v>
+        <v>821</v>
       </c>
       <c r="D40">
-        <v>65157</v>
+        <v>23718</v>
       </c>
       <c r="E40">
-        <v>19719</v>
+        <v>5101</v>
       </c>
       <c r="F40">
-        <v>13164</v>
+        <v>5004</v>
       </c>
       <c r="G40">
-        <v>62506</v>
+        <v>17270</v>
       </c>
       <c r="H40">
-        <v>235495</v>
+        <v>61524</v>
       </c>
       <c r="I40">
-        <v>9919</v>
+        <v>3867</v>
       </c>
       <c r="J40">
-        <v>62479</v>
+        <v>9454</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1852</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>63694</v>
+        <v>11459</v>
       </c>
       <c r="O40">
-        <v>167140</v>
+        <v>25616</v>
       </c>
       <c r="P40">
-        <v>92051</v>
+        <v>11961</v>
       </c>
       <c r="Q40">
-        <v>4808</v>
+        <v>60</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>68355</v>
+        <v>35908</v>
       </c>
       <c r="U40">
-        <v>14869</v>
+        <v>1107</v>
       </c>
       <c r="V40">
-        <v>7119</v>
+        <v>652</v>
       </c>
       <c r="W40">
-        <v>-663</v>
+        <v>-119</v>
       </c>
       <c r="X40">
-        <v>-978</v>
+        <v>-109</v>
       </c>
       <c r="Y40">
-        <v>19614</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-731</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>2975</v>
+        <v>821</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1224</v>
+        <v>809</v>
       </c>
       <c r="D41">
-        <v>66852</v>
+        <v>23711</v>
       </c>
       <c r="E41">
-        <v>20645</v>
+        <v>5111</v>
       </c>
       <c r="F41">
-        <v>11516</v>
+        <v>5015</v>
       </c>
       <c r="G41">
-        <v>59211</v>
+        <v>17339</v>
       </c>
       <c r="H41">
-        <v>232898</v>
+        <v>61713</v>
       </c>
       <c r="I41">
-        <v>11677</v>
+        <v>4162</v>
       </c>
       <c r="J41">
-        <v>60516</v>
+        <v>8653</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1384</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>62044</v>
+        <v>11674</v>
       </c>
       <c r="O41">
-        <v>163786</v>
+        <v>25041</v>
       </c>
       <c r="P41">
-        <v>87273</v>
+        <v>11141</v>
       </c>
       <c r="Q41">
-        <v>-5613</v>
+        <v>-128</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>69112</v>
+        <v>36672</v>
       </c>
       <c r="U41">
-        <v>9256</v>
+        <v>979</v>
       </c>
       <c r="V41">
-        <v>1874</v>
+        <v>1292</v>
       </c>
       <c r="W41">
-        <v>-665</v>
+        <v>-119</v>
       </c>
       <c r="X41">
-        <v>-6117</v>
+        <v>-912</v>
       </c>
       <c r="Y41">
-        <v>19525</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-1609</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>1224</v>
+        <v>809</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>1026</v>
+      </c>
+      <c r="D42">
+        <v>24589</v>
+      </c>
+      <c r="E42">
+        <v>4925</v>
+      </c>
+      <c r="F42">
+        <v>5454</v>
+      </c>
+      <c r="G42">
+        <v>17706</v>
+      </c>
+      <c r="H42">
+        <v>62169</v>
+      </c>
+      <c r="I42">
+        <v>4026</v>
+      </c>
+      <c r="J42">
+        <v>8652</v>
+      </c>
+      <c r="K42">
+        <v>300</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>11070</v>
+      </c>
+      <c r="O42">
+        <v>24435</v>
+      </c>
+      <c r="P42">
+        <v>10057</v>
+      </c>
+      <c r="Q42">
+        <v>448</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>201000</v>
+      </c>
+      <c r="T42">
+        <v>37734</v>
+      </c>
+      <c r="U42">
+        <v>1427</v>
+      </c>
+      <c r="V42">
+        <v>1775</v>
+      </c>
+      <c r="W42">
+        <v>-119</v>
+      </c>
+      <c r="X42">
+        <v>-1075</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>713</v>
+      </c>
+      <c r="D43">
+        <v>25695</v>
+      </c>
+      <c r="E43">
+        <v>5348</v>
+      </c>
+      <c r="F43">
+        <v>4742</v>
+      </c>
+      <c r="G43">
+        <v>18380</v>
+      </c>
+      <c r="H43">
+        <v>62828</v>
+      </c>
+      <c r="I43">
+        <v>4354</v>
+      </c>
+      <c r="J43">
+        <v>8669</v>
+      </c>
+      <c r="K43">
+        <v>300</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-301</v>
+      </c>
+      <c r="N43">
+        <v>11465</v>
+      </c>
+      <c r="O43">
+        <v>24876</v>
+      </c>
+      <c r="P43">
+        <v>9775</v>
+      </c>
+      <c r="Q43">
+        <v>735</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>37952</v>
+      </c>
+      <c r="U43">
+        <v>2162</v>
+      </c>
+      <c r="V43">
+        <v>1866</v>
+      </c>
+      <c r="W43">
+        <v>-171</v>
+      </c>
+      <c r="X43">
+        <v>-832</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-2</v>
+      </c>
+      <c r="AA43">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>816</v>
+      </c>
+      <c r="D44">
+        <v>26414</v>
+      </c>
+      <c r="E44">
+        <v>5892</v>
+      </c>
+      <c r="F44">
+        <v>5086</v>
+      </c>
+      <c r="G44">
+        <v>19065</v>
+      </c>
+      <c r="H44">
+        <v>65487</v>
+      </c>
+      <c r="I44">
+        <v>4446</v>
+      </c>
+      <c r="J44">
+        <v>10168</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>11752</v>
+      </c>
+      <c r="O44">
+        <v>27211</v>
+      </c>
+      <c r="P44">
+        <v>11084</v>
+      </c>
+      <c r="Q44">
+        <v>66</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>38276</v>
+      </c>
+      <c r="U44">
+        <v>2228</v>
+      </c>
+      <c r="V44">
+        <v>1207</v>
+      </c>
+      <c r="W44">
+        <v>-170</v>
+      </c>
+      <c r="X44">
+        <v>626</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>868</v>
+      </c>
+      <c r="D45">
+        <v>26674</v>
+      </c>
+      <c r="E45">
+        <v>5901</v>
+      </c>
+      <c r="F45">
+        <v>5178</v>
+      </c>
+      <c r="G45">
+        <v>18938</v>
+      </c>
+      <c r="H45">
+        <v>65251</v>
+      </c>
+      <c r="I45">
+        <v>4387</v>
+      </c>
+      <c r="J45">
+        <v>10167</v>
+      </c>
+      <c r="K45">
+        <v>530</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>12350</v>
+      </c>
+      <c r="O45">
+        <v>27733</v>
+      </c>
+      <c r="P45">
+        <v>10768</v>
+      </c>
+      <c r="Q45">
+        <v>-521</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>37518</v>
+      </c>
+      <c r="U45">
+        <v>1707</v>
+      </c>
+      <c r="V45">
+        <v>1962</v>
+      </c>
+      <c r="W45">
+        <v>-167</v>
+      </c>
+      <c r="X45">
+        <v>-1986</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>6047</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>18594</v>
+      </c>
+      <c r="H46">
+        <v>64543</v>
+      </c>
+      <c r="I46">
+        <v>4370</v>
+      </c>
+      <c r="J46">
+        <v>9208</v>
+      </c>
+      <c r="K46">
+        <v>750</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>11956</v>
+      </c>
+      <c r="O46">
+        <v>26462</v>
+      </c>
+      <c r="P46">
+        <v>10014</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>202000</v>
+      </c>
+      <c r="T46">
+        <v>38081</v>
+      </c>
+      <c r="U46">
+        <v>1413</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>776</v>
+      </c>
+      <c r="D47">
+        <v>30798</v>
+      </c>
+      <c r="E47">
+        <v>6109</v>
+      </c>
+      <c r="F47">
+        <v>5113</v>
+      </c>
+      <c r="G47">
+        <v>19891</v>
+      </c>
+      <c r="H47">
+        <v>66006</v>
+      </c>
+      <c r="I47">
+        <v>5240</v>
+      </c>
+      <c r="J47">
+        <v>9206</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>-750</v>
+      </c>
+      <c r="M47">
+        <v>-52</v>
+      </c>
+      <c r="N47">
+        <v>13412</v>
+      </c>
+      <c r="O47">
+        <v>27924</v>
+      </c>
+      <c r="P47">
+        <v>9211</v>
+      </c>
+      <c r="Q47">
+        <v>798</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>38082</v>
+      </c>
+      <c r="U47">
+        <v>2211</v>
+      </c>
+      <c r="V47">
+        <v>2786</v>
+      </c>
+      <c r="W47">
+        <v>-211</v>
+      </c>
+      <c r="X47">
+        <v>-1545</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>966</v>
+      </c>
+      <c r="D48">
+        <v>30714</v>
+      </c>
+      <c r="E48">
+        <v>6124</v>
+      </c>
+      <c r="F48">
+        <v>5449</v>
+      </c>
+      <c r="G48">
+        <v>19299</v>
+      </c>
+      <c r="H48">
+        <v>65589</v>
+      </c>
+      <c r="I48">
+        <v>4903</v>
+      </c>
+      <c r="J48">
+        <v>9208</v>
+      </c>
+      <c r="K48">
+        <v>200</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>13136</v>
+      </c>
+      <c r="O48">
+        <v>27676</v>
+      </c>
+      <c r="P48">
+        <v>9413</v>
+      </c>
+      <c r="Q48">
+        <v>-388</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>37913</v>
+      </c>
+      <c r="U48">
+        <v>1823</v>
+      </c>
+      <c r="V48">
+        <v>1231</v>
+      </c>
+      <c r="W48">
+        <v>-209</v>
+      </c>
+      <c r="X48">
+        <v>-977</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>1006</v>
+      </c>
+      <c r="D49">
+        <v>30227</v>
+      </c>
+      <c r="E49">
+        <v>6407</v>
+      </c>
+      <c r="F49">
+        <v>5647</v>
+      </c>
+      <c r="G49">
+        <v>18879</v>
+      </c>
+      <c r="H49">
+        <v>64796</v>
+      </c>
+      <c r="I49">
+        <v>5091</v>
+      </c>
+      <c r="J49">
+        <v>9210</v>
+      </c>
+      <c r="K49">
+        <v>825</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>13263</v>
+      </c>
+      <c r="O49">
+        <v>27880</v>
+      </c>
+      <c r="P49">
+        <v>10040</v>
+      </c>
+      <c r="Q49">
+        <v>-590</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>36916</v>
+      </c>
+      <c r="U49">
+        <v>1233</v>
+      </c>
+      <c r="V49">
+        <v>923</v>
+      </c>
+      <c r="W49">
+        <v>-207</v>
+      </c>
+      <c r="X49">
+        <v>-1415</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>1116</v>
+      </c>
+      <c r="D50">
+        <v>31381</v>
+      </c>
+      <c r="E50">
+        <v>6479</v>
+      </c>
+      <c r="F50">
+        <v>6279</v>
+      </c>
+      <c r="G50">
+        <v>20161</v>
+      </c>
+      <c r="H50">
+        <v>66221</v>
+      </c>
+      <c r="I50">
+        <v>5070</v>
+      </c>
+      <c r="J50">
+        <v>9133</v>
+      </c>
+      <c r="K50">
+        <v>690</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>14150</v>
+      </c>
+      <c r="O50">
+        <v>28568</v>
+      </c>
+      <c r="P50">
+        <v>9828</v>
+      </c>
+      <c r="Q50">
+        <v>142</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>203000</v>
+      </c>
+      <c r="T50">
+        <v>37653</v>
+      </c>
+      <c r="U50">
+        <v>1375</v>
+      </c>
+      <c r="V50">
+        <v>1731</v>
+      </c>
+      <c r="W50">
+        <v>-202</v>
+      </c>
+      <c r="X50">
+        <v>-923</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>954</v>
+      </c>
+      <c r="D51">
+        <v>30751</v>
+      </c>
+      <c r="E51">
+        <v>6635</v>
+      </c>
+      <c r="F51">
+        <v>5577</v>
+      </c>
+      <c r="G51">
+        <v>19727</v>
+      </c>
+      <c r="H51">
+        <v>66068</v>
+      </c>
+      <c r="I51">
+        <v>5506</v>
+      </c>
+      <c r="J51">
+        <v>9352</v>
+      </c>
+      <c r="K51">
+        <v>300</v>
+      </c>
+      <c r="L51">
+        <v>-390</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>13195</v>
+      </c>
+      <c r="O51">
+        <v>27859</v>
+      </c>
+      <c r="P51">
+        <v>9664</v>
+      </c>
+      <c r="Q51">
+        <v>176</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>38209</v>
+      </c>
+      <c r="U51">
+        <v>1551</v>
+      </c>
+      <c r="V51">
+        <v>1640</v>
+      </c>
+      <c r="W51">
+        <v>-277</v>
+      </c>
+      <c r="X51">
+        <v>-897</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>1124</v>
+      </c>
+      <c r="D52">
+        <v>31248</v>
+      </c>
+      <c r="E52">
+        <v>7093</v>
+      </c>
+      <c r="F52">
+        <v>5841</v>
+      </c>
+      <c r="G52">
+        <v>19869</v>
+      </c>
+      <c r="H52">
+        <v>66284</v>
+      </c>
+      <c r="I52">
+        <v>5178</v>
+      </c>
+      <c r="J52">
+        <v>9358</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>12690</v>
+      </c>
+      <c r="O52">
+        <v>27378</v>
+      </c>
+      <c r="P52">
+        <v>9376</v>
+      </c>
+      <c r="Q52">
+        <v>-377</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>38906</v>
+      </c>
+      <c r="U52">
+        <v>1174</v>
+      </c>
+      <c r="V52">
+        <v>902</v>
+      </c>
+      <c r="W52">
+        <v>-276</v>
+      </c>
+      <c r="X52">
+        <v>-751</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1249</v>
+      </c>
+      <c r="D53">
+        <v>31932</v>
+      </c>
+      <c r="E53">
+        <v>8035</v>
+      </c>
+      <c r="F53">
+        <v>6027</v>
+      </c>
+      <c r="G53">
+        <v>21432</v>
+      </c>
+      <c r="H53">
+        <v>67805</v>
+      </c>
+      <c r="I53">
+        <v>5412</v>
+      </c>
+      <c r="J53">
+        <v>8819</v>
+      </c>
+      <c r="K53">
+        <v>814</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>15098</v>
+      </c>
+      <c r="O53">
+        <v>29271</v>
+      </c>
+      <c r="P53">
+        <v>10205</v>
+      </c>
+      <c r="Q53">
+        <v>331</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>38534</v>
+      </c>
+      <c r="U53">
+        <v>1505</v>
+      </c>
+      <c r="V53">
+        <v>1703</v>
+      </c>
+      <c r="W53">
+        <v>-276</v>
+      </c>
+      <c r="X53">
+        <v>-850</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-107</v>
+      </c>
+      <c r="AA53">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>1265</v>
+      </c>
+      <c r="D54">
+        <v>32830</v>
+      </c>
+      <c r="E54">
+        <v>8729</v>
+      </c>
+      <c r="F54">
+        <v>6339</v>
+      </c>
+      <c r="G54">
+        <v>25325</v>
+      </c>
+      <c r="H54">
+        <v>71526</v>
+      </c>
+      <c r="I54">
+        <v>5548</v>
+      </c>
+      <c r="J54">
+        <v>12841</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>15425</v>
+      </c>
+      <c r="O54">
+        <v>33588</v>
+      </c>
+      <c r="P54">
+        <v>13402</v>
+      </c>
+      <c r="Q54">
+        <v>2584</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>130000</v>
+      </c>
+      <c r="T54">
+        <v>37938</v>
+      </c>
+      <c r="U54">
+        <v>4089</v>
+      </c>
+      <c r="V54">
+        <v>1538</v>
+      </c>
+      <c r="W54">
+        <v>-268</v>
+      </c>
+      <c r="X54">
+        <v>1261</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>17</v>
+      </c>
+      <c r="AA54">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>1129</v>
+      </c>
+      <c r="D55">
+        <v>32689</v>
+      </c>
+      <c r="E55">
+        <v>9086</v>
+      </c>
+      <c r="F55">
+        <v>5942</v>
+      </c>
+      <c r="G55">
+        <v>24460</v>
+      </c>
+      <c r="H55">
+        <v>72822</v>
+      </c>
+      <c r="I55">
+        <v>5638</v>
+      </c>
+      <c r="J55">
+        <v>12845</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>16213</v>
+      </c>
+      <c r="O55">
+        <v>34610</v>
+      </c>
+      <c r="P55">
+        <v>13410</v>
+      </c>
+      <c r="Q55">
+        <v>-1323</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>38212</v>
+      </c>
+      <c r="U55">
+        <v>2766</v>
+      </c>
+      <c r="V55">
+        <v>2172</v>
+      </c>
+      <c r="W55">
+        <v>-325</v>
+      </c>
+      <c r="X55">
+        <v>-935</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>12</v>
+      </c>
+      <c r="AA55">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>1246</v>
+      </c>
+      <c r="D56">
+        <v>34602</v>
+      </c>
+      <c r="E56">
+        <v>9533</v>
+      </c>
+      <c r="F56">
+        <v>6324</v>
+      </c>
+      <c r="G56">
+        <v>24138</v>
+      </c>
+      <c r="H56">
+        <v>72593</v>
+      </c>
+      <c r="I56">
+        <v>5780</v>
+      </c>
+      <c r="J56">
+        <v>12252</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>16629</v>
+      </c>
+      <c r="O56">
+        <v>34461</v>
+      </c>
+      <c r="P56">
+        <v>13371</v>
+      </c>
+      <c r="Q56">
+        <v>-1154</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>38132</v>
+      </c>
+      <c r="U56">
+        <v>1612</v>
+      </c>
+      <c r="V56">
+        <v>897</v>
+      </c>
+      <c r="W56">
+        <v>-322</v>
+      </c>
+      <c r="X56">
+        <v>-1423</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-70</v>
+      </c>
+      <c r="AA56">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>948</v>
+      </c>
+      <c r="D57">
+        <v>35021</v>
+      </c>
+      <c r="E57">
+        <v>10828</v>
+      </c>
+      <c r="F57">
+        <v>6468</v>
+      </c>
+      <c r="G57">
+        <v>25337</v>
+      </c>
+      <c r="H57">
+        <v>73576</v>
+      </c>
+      <c r="I57">
+        <v>6033</v>
+      </c>
+      <c r="J57">
+        <v>11709</v>
+      </c>
+      <c r="K57">
+        <v>775</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>18213</v>
+      </c>
+      <c r="O57">
+        <v>35467</v>
+      </c>
+      <c r="P57">
+        <v>13056</v>
+      </c>
+      <c r="Q57">
+        <v>-480</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>38109</v>
+      </c>
+      <c r="U57">
+        <v>1132</v>
+      </c>
+      <c r="V57">
+        <v>1645</v>
+      </c>
+      <c r="W57">
+        <v>-324</v>
+      </c>
+      <c r="X57">
+        <v>-1775</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>16</v>
+      </c>
+      <c r="AA57">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>9687</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>25983</v>
+      </c>
+      <c r="H58">
+        <v>74187</v>
+      </c>
+      <c r="I58">
+        <v>6547</v>
+      </c>
+      <c r="J58">
+        <v>11630</v>
+      </c>
+      <c r="K58">
+        <v>685</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>19027</v>
+      </c>
+      <c r="O58">
+        <v>36224</v>
+      </c>
+      <c r="P58">
+        <v>12890</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>137800</v>
+      </c>
+      <c r="T58">
+        <v>37963</v>
+      </c>
+      <c r="U58">
+        <v>2481</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>1221</v>
+      </c>
+      <c r="D59">
+        <v>36332</v>
+      </c>
+      <c r="E59">
+        <v>10162</v>
+      </c>
+      <c r="F59">
+        <v>6164</v>
+      </c>
+      <c r="G59">
+        <v>25622</v>
+      </c>
+      <c r="H59">
+        <v>73930</v>
+      </c>
+      <c r="I59">
+        <v>6431</v>
+      </c>
+      <c r="J59">
+        <v>11689</v>
+      </c>
+      <c r="K59">
+        <v>500</v>
+      </c>
+      <c r="L59">
+        <v>-185</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>19713</v>
+      </c>
+      <c r="O59">
+        <v>36935</v>
+      </c>
+      <c r="P59">
+        <v>12762</v>
+      </c>
+      <c r="Q59">
+        <v>-963</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>36995</v>
+      </c>
+      <c r="U59">
+        <v>1518</v>
+      </c>
+      <c r="V59">
+        <v>1984</v>
+      </c>
+      <c r="W59">
+        <v>-399</v>
+      </c>
+      <c r="X59">
+        <v>-2406</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-97</v>
+      </c>
+      <c r="AA59">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>1272</v>
+      </c>
+      <c r="D60">
+        <v>37169</v>
+      </c>
+      <c r="E60">
+        <v>10892</v>
+      </c>
+      <c r="F60">
+        <v>6402</v>
+      </c>
+      <c r="G60">
+        <v>26401</v>
+      </c>
+      <c r="H60">
+        <v>74668</v>
+      </c>
+      <c r="I60">
+        <v>6370</v>
+      </c>
+      <c r="J60">
+        <v>11633</v>
+      </c>
+      <c r="K60">
+        <v>1488</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>20386</v>
+      </c>
+      <c r="O60">
+        <v>37535</v>
+      </c>
+      <c r="P60">
+        <v>13145</v>
+      </c>
+      <c r="Q60">
+        <v>-274</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>37133</v>
+      </c>
+      <c r="U60">
+        <v>1244</v>
+      </c>
+      <c r="V60">
+        <v>1037</v>
+      </c>
+      <c r="W60">
+        <v>-395</v>
+      </c>
+      <c r="X60">
+        <v>-761</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>13</v>
+      </c>
+      <c r="AA60">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>1246</v>
+      </c>
+      <c r="D61">
+        <v>38644</v>
+      </c>
+      <c r="E61">
+        <v>12804</v>
+      </c>
+      <c r="F61">
+        <v>6661</v>
+      </c>
+      <c r="G61">
+        <v>30753</v>
+      </c>
+      <c r="H61">
+        <v>92362</v>
+      </c>
+      <c r="I61">
+        <v>7064</v>
+      </c>
+      <c r="J61">
+        <v>26771</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>21434</v>
+      </c>
+      <c r="O61">
+        <v>55182</v>
+      </c>
+      <c r="P61">
+        <v>27222</v>
+      </c>
+      <c r="Q61">
+        <v>1646</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>37180</v>
+      </c>
+      <c r="U61">
+        <v>2890</v>
+      </c>
+      <c r="V61">
+        <v>1820</v>
+      </c>
+      <c r="W61">
+        <v>-391</v>
+      </c>
+      <c r="X61">
+        <v>9743</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>15</v>
+      </c>
+      <c r="AA61">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>1498</v>
+      </c>
+      <c r="D62">
+        <v>41146</v>
+      </c>
+      <c r="E62">
+        <v>11888</v>
+      </c>
+      <c r="F62">
+        <v>7301</v>
+      </c>
+      <c r="G62">
+        <v>29158</v>
+      </c>
+      <c r="H62">
+        <v>92437</v>
+      </c>
+      <c r="I62">
+        <v>7490</v>
+      </c>
+      <c r="J62">
+        <v>26267</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>23169</v>
+      </c>
+      <c r="O62">
+        <v>55195</v>
+      </c>
+      <c r="P62">
+        <v>27464</v>
+      </c>
+      <c r="Q62">
+        <v>-431</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>155000</v>
+      </c>
+      <c r="T62">
+        <v>37242</v>
+      </c>
+      <c r="U62">
+        <v>2459</v>
+      </c>
+      <c r="V62">
+        <v>3571</v>
+      </c>
+      <c r="W62">
+        <v>-391</v>
+      </c>
+      <c r="X62">
+        <v>-1570</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>45</v>
+      </c>
+      <c r="AA62">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>1146</v>
+      </c>
+      <c r="D63">
+        <v>43215</v>
+      </c>
+      <c r="E63">
+        <v>13025</v>
+      </c>
+      <c r="F63">
+        <v>6748</v>
+      </c>
+      <c r="G63">
+        <v>29413</v>
+      </c>
+      <c r="H63">
+        <v>92634</v>
+      </c>
+      <c r="I63">
+        <v>7361</v>
+      </c>
+      <c r="J63">
+        <v>26267</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>24537</v>
+      </c>
+      <c r="O63">
+        <v>56603</v>
+      </c>
+      <c r="P63">
+        <v>27469</v>
+      </c>
+      <c r="Q63">
+        <v>-680</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>36031</v>
+      </c>
+      <c r="U63">
+        <v>1779</v>
+      </c>
+      <c r="V63">
+        <v>2439</v>
+      </c>
+      <c r="W63">
+        <v>-470</v>
+      </c>
+      <c r="X63">
+        <v>-2487</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>14</v>
+      </c>
+      <c r="AA63">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>924</v>
+      </c>
+      <c r="D64">
+        <v>43725</v>
+      </c>
+      <c r="E64">
+        <v>13183</v>
+      </c>
+      <c r="F64">
+        <v>7021</v>
+      </c>
+      <c r="G64">
+        <v>29448</v>
+      </c>
+      <c r="H64">
+        <v>92748</v>
+      </c>
+      <c r="I64">
+        <v>7351</v>
+      </c>
+      <c r="J64">
+        <v>25600</v>
+      </c>
+      <c r="K64">
+        <v>745</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>26569</v>
+      </c>
+      <c r="O64">
+        <v>57982</v>
+      </c>
+      <c r="P64">
+        <v>28636</v>
+      </c>
+      <c r="Q64">
+        <v>-652</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>34766</v>
+      </c>
+      <c r="U64">
+        <v>1127</v>
+      </c>
+      <c r="V64">
+        <v>1647</v>
+      </c>
+      <c r="W64">
+        <v>-459</v>
+      </c>
+      <c r="X64">
+        <v>-1702</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>14</v>
+      </c>
+      <c r="AA64">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>1540</v>
+      </c>
+      <c r="D65">
+        <v>44615</v>
+      </c>
+      <c r="E65">
+        <v>13625</v>
+      </c>
+      <c r="F65">
+        <v>7497</v>
+      </c>
+      <c r="G65">
+        <v>30939</v>
+      </c>
+      <c r="H65">
+        <v>94156</v>
+      </c>
+      <c r="I65">
+        <v>7584</v>
+      </c>
+      <c r="J65">
+        <v>25610</v>
+      </c>
+      <c r="K65">
+        <v>340</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>26741</v>
+      </c>
+      <c r="O65">
+        <v>58202</v>
+      </c>
+      <c r="P65">
+        <v>26733</v>
+      </c>
+      <c r="Q65">
+        <v>1062</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>35954</v>
+      </c>
+      <c r="U65">
+        <v>2189</v>
+      </c>
+      <c r="V65">
+        <v>3934</v>
+      </c>
+      <c r="W65">
+        <v>-455</v>
+      </c>
+      <c r="X65">
+        <v>-2451</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>8</v>
+      </c>
+      <c r="AA65">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>1707</v>
+      </c>
+      <c r="D66">
+        <v>45971</v>
+      </c>
+      <c r="E66">
+        <v>12164</v>
+      </c>
+      <c r="F66">
+        <v>7637</v>
+      </c>
+      <c r="G66">
+        <v>31042</v>
+      </c>
+      <c r="H66">
+        <v>94462</v>
+      </c>
+      <c r="I66">
+        <v>7946</v>
+      </c>
+      <c r="J66">
+        <v>25615</v>
+      </c>
+      <c r="K66">
+        <v>1874</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>26250</v>
+      </c>
+      <c r="O66">
+        <v>57628</v>
+      </c>
+      <c r="P66">
+        <v>27531</v>
+      </c>
+      <c r="Q66">
+        <v>1182</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>158000</v>
+      </c>
+      <c r="T66">
+        <v>36834</v>
+      </c>
+      <c r="U66">
+        <v>3371</v>
+      </c>
+      <c r="V66">
+        <v>2121</v>
+      </c>
+      <c r="W66">
+        <v>-456</v>
+      </c>
+      <c r="X66">
+        <v>-121</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-10</v>
+      </c>
+      <c r="AA66">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>952</v>
+      </c>
+      <c r="D67">
+        <v>44514</v>
+      </c>
+      <c r="E67">
+        <v>12114</v>
+      </c>
+      <c r="F67">
+        <v>6571</v>
+      </c>
+      <c r="G67">
+        <v>29457</v>
+      </c>
+      <c r="H67">
+        <v>92670</v>
+      </c>
+      <c r="I67">
+        <v>7344</v>
+      </c>
+      <c r="J67">
+        <v>25622</v>
+      </c>
+      <c r="K67">
+        <v>1768</v>
+      </c>
+      <c r="L67">
+        <v>-106</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>27288</v>
+      </c>
+      <c r="O67">
+        <v>58828</v>
+      </c>
+      <c r="P67">
+        <v>27433</v>
+      </c>
+      <c r="Q67">
+        <v>-1137</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>33842</v>
+      </c>
+      <c r="U67">
+        <v>2217</v>
+      </c>
+      <c r="V67">
+        <v>3533</v>
+      </c>
+      <c r="W67">
+        <v>-516</v>
+      </c>
+      <c r="X67">
+        <v>-4133</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>8</v>
+      </c>
+      <c r="AA67">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>1098</v>
+      </c>
+      <c r="D68">
+        <v>45685</v>
+      </c>
+      <c r="E68">
+        <v>12274</v>
+      </c>
+      <c r="F68">
+        <v>6931</v>
+      </c>
+      <c r="G68">
+        <v>29404</v>
+      </c>
+      <c r="H68">
+        <v>92525</v>
+      </c>
+      <c r="I68">
+        <v>7874</v>
+      </c>
+      <c r="J68">
+        <v>25622</v>
+      </c>
+      <c r="K68">
+        <v>1100</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>26857</v>
+      </c>
+      <c r="O68">
+        <v>58378</v>
+      </c>
+      <c r="P68">
+        <v>26764</v>
+      </c>
+      <c r="Q68">
+        <v>-100</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>34147</v>
+      </c>
+      <c r="U68">
+        <v>2094</v>
+      </c>
+      <c r="V68">
+        <v>1999</v>
+      </c>
+      <c r="W68">
+        <v>-512</v>
+      </c>
+      <c r="X68">
+        <v>-1502</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>8</v>
+      </c>
+      <c r="AA68">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>1285</v>
+      </c>
+      <c r="D69">
+        <v>46181</v>
+      </c>
+      <c r="E69">
+        <v>12440</v>
+      </c>
+      <c r="F69">
+        <v>7119</v>
+      </c>
+      <c r="G69">
+        <v>29923</v>
+      </c>
+      <c r="H69">
+        <v>92853</v>
+      </c>
+      <c r="I69">
+        <v>7899</v>
+      </c>
+      <c r="J69">
+        <v>23386</v>
+      </c>
+      <c r="K69">
+        <v>110</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>28513</v>
+      </c>
+      <c r="O69">
+        <v>57985</v>
+      </c>
+      <c r="P69">
+        <v>25789</v>
+      </c>
+      <c r="Q69">
+        <v>392</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>34868</v>
+      </c>
+      <c r="U69">
+        <v>2485</v>
+      </c>
+      <c r="V69">
+        <v>2611</v>
+      </c>
+      <c r="W69">
+        <v>-511</v>
+      </c>
+      <c r="X69">
+        <v>-1786</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>5</v>
+      </c>
+      <c r="AA69">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>3287</v>
+      </c>
+      <c r="D70">
+        <v>48385</v>
+      </c>
+      <c r="E70">
+        <v>13035</v>
+      </c>
+      <c r="F70">
+        <v>7888</v>
+      </c>
+      <c r="G70">
+        <v>31229</v>
+      </c>
+      <c r="H70">
+        <v>95131</v>
+      </c>
+      <c r="I70">
+        <v>8863</v>
+      </c>
+      <c r="J70">
+        <v>21511</v>
+      </c>
+      <c r="K70">
+        <v>1276</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>30648</v>
+      </c>
+      <c r="O70">
+        <v>57436</v>
+      </c>
+      <c r="P70">
+        <v>27025</v>
+      </c>
+      <c r="Q70">
+        <v>-775</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>160000</v>
+      </c>
+      <c r="T70">
+        <v>37695</v>
+      </c>
+      <c r="U70">
+        <v>1696</v>
+      </c>
+      <c r="V70">
+        <v>-136</v>
+      </c>
+      <c r="W70">
+        <v>-510</v>
+      </c>
+      <c r="X70">
+        <v>670</v>
+      </c>
+      <c r="Y70">
+        <v>670</v>
+      </c>
+      <c r="Z70">
+        <v>-97</v>
+      </c>
+      <c r="AA70">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>998</v>
+      </c>
+      <c r="D71">
+        <v>45693</v>
+      </c>
+      <c r="E71">
+        <v>13964</v>
+      </c>
+      <c r="F71">
+        <v>6859</v>
+      </c>
+      <c r="G71">
+        <v>71798</v>
+      </c>
+      <c r="H71">
+        <v>135139</v>
+      </c>
+      <c r="I71">
+        <v>7741</v>
+      </c>
+      <c r="J71">
+        <v>61552</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>-1276</v>
+      </c>
+      <c r="M71">
+        <v>-1</v>
+      </c>
+      <c r="N71">
+        <v>30248</v>
+      </c>
+      <c r="O71">
+        <v>96462</v>
+      </c>
+      <c r="P71">
+        <v>65094</v>
+      </c>
+      <c r="Q71">
+        <v>40364</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>38677</v>
+      </c>
+      <c r="U71">
+        <v>42023</v>
+      </c>
+      <c r="V71">
+        <v>2355</v>
+      </c>
+      <c r="W71">
+        <v>-508</v>
+      </c>
+      <c r="X71">
+        <v>38140</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-23</v>
+      </c>
+      <c r="AA71">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>-2563</v>
+      </c>
+      <c r="D72">
+        <v>46708</v>
+      </c>
+      <c r="E72">
+        <v>13649</v>
+      </c>
+      <c r="F72">
+        <v>7201</v>
+      </c>
+      <c r="G72">
+        <v>73790</v>
+      </c>
+      <c r="H72">
+        <v>133290</v>
+      </c>
+      <c r="I72">
+        <v>8570</v>
+      </c>
+      <c r="J72">
+        <v>61569</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>31493</v>
+      </c>
+      <c r="O72">
+        <v>97679</v>
+      </c>
+      <c r="P72">
+        <v>65109</v>
+      </c>
+      <c r="Q72">
+        <v>1793</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>35611</v>
+      </c>
+      <c r="U72">
+        <v>43815</v>
+      </c>
+      <c r="V72">
+        <v>2934</v>
+      </c>
+      <c r="W72">
+        <v>-510</v>
+      </c>
+      <c r="X72">
+        <v>-520</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>7</v>
+      </c>
+      <c r="AA72">
+        <v>-2563</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1390</v>
+      </c>
+      <c r="D73">
+        <v>47269</v>
+      </c>
+      <c r="E73">
+        <v>14249</v>
+      </c>
+      <c r="F73">
+        <v>7328</v>
+      </c>
+      <c r="G73">
+        <v>71981</v>
+      </c>
+      <c r="H73">
+        <v>131506</v>
+      </c>
+      <c r="I73">
+        <v>8813</v>
+      </c>
+      <c r="J73">
+        <v>60747</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>29460</v>
+      </c>
+      <c r="O73">
+        <v>94884</v>
+      </c>
+      <c r="P73">
+        <v>62886</v>
+      </c>
+      <c r="Q73">
+        <v>-2230</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>36622</v>
+      </c>
+      <c r="U73">
+        <v>41587</v>
+      </c>
+      <c r="V73">
+        <v>1097</v>
+      </c>
+      <c r="W73">
+        <v>-510</v>
+      </c>
+      <c r="X73">
+        <v>-2693</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-38</v>
+      </c>
+      <c r="AA73">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>-419</v>
+      </c>
+      <c r="D74">
+        <v>54249</v>
+      </c>
+      <c r="E74">
+        <v>16071</v>
+      </c>
+      <c r="F74">
+        <v>9490</v>
+      </c>
+      <c r="G74">
+        <v>45243</v>
+      </c>
+      <c r="H74">
+        <v>196456</v>
+      </c>
+      <c r="I74">
+        <v>8925</v>
+      </c>
+      <c r="J74">
+        <v>70802</v>
+      </c>
+      <c r="K74">
+        <v>720</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>44009</v>
+      </c>
+      <c r="O74">
+        <v>137913</v>
+      </c>
+      <c r="P74">
+        <v>73429</v>
+      </c>
+      <c r="Q74">
+        <v>-37532</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>295000</v>
+      </c>
+      <c r="T74">
+        <v>58543</v>
+      </c>
+      <c r="U74">
+        <v>4059</v>
+      </c>
+      <c r="V74">
+        <v>2479</v>
+      </c>
+      <c r="W74">
+        <v>-510</v>
+      </c>
+      <c r="X74">
+        <v>1892</v>
+      </c>
+      <c r="Y74">
+        <v>642</v>
+      </c>
+      <c r="Z74">
+        <v>179</v>
+      </c>
+      <c r="AA74">
+        <v>-419</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>1421</v>
+      </c>
+      <c r="D75">
+        <v>61397</v>
+      </c>
+      <c r="E75">
+        <v>18641</v>
+      </c>
+      <c r="F75">
+        <v>10691</v>
+      </c>
+      <c r="G75">
+        <v>47857</v>
+      </c>
+      <c r="H75">
+        <v>219768</v>
+      </c>
+      <c r="I75">
+        <v>8290</v>
+      </c>
+      <c r="J75">
+        <v>67353</v>
+      </c>
+      <c r="K75">
+        <v>3005</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-882</v>
+      </c>
+      <c r="N75">
+        <v>50631</v>
+      </c>
+      <c r="O75">
+        <v>159762</v>
+      </c>
+      <c r="P75">
+        <v>95550</v>
+      </c>
+      <c r="Q75">
+        <v>1873</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>60006</v>
+      </c>
+      <c r="U75">
+        <v>5896</v>
+      </c>
+      <c r="V75">
+        <v>1948</v>
+      </c>
+      <c r="W75">
+        <v>-649</v>
+      </c>
+      <c r="X75">
+        <v>816</v>
+      </c>
+      <c r="Y75">
+        <v>19496</v>
+      </c>
+      <c r="Z75">
+        <v>-61</v>
+      </c>
+      <c r="AA75">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1936</v>
+      </c>
+      <c r="D76">
+        <v>63138</v>
+      </c>
+      <c r="E76">
+        <v>17422</v>
+      </c>
+      <c r="F76">
+        <v>11081</v>
+      </c>
+      <c r="G76">
+        <v>46901</v>
+      </c>
+      <c r="H76">
+        <v>218904</v>
+      </c>
+      <c r="I76">
+        <v>9160</v>
+      </c>
+      <c r="J76">
+        <v>66382</v>
+      </c>
+      <c r="K76">
+        <v>446</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>49376</v>
+      </c>
+      <c r="O76">
+        <v>157305</v>
+      </c>
+      <c r="P76">
+        <v>91923</v>
+      </c>
+      <c r="Q76">
+        <v>170</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>61599</v>
+      </c>
+      <c r="U76">
+        <v>6063</v>
+      </c>
+      <c r="V76">
+        <v>5338</v>
+      </c>
+      <c r="W76">
+        <v>-657</v>
+      </c>
+      <c r="X76">
+        <v>-4258</v>
+      </c>
+      <c r="Y76">
+        <v>19408</v>
+      </c>
+      <c r="Z76">
+        <v>-215</v>
+      </c>
+      <c r="AA76">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1530</v>
+      </c>
+      <c r="D77">
+        <v>64547</v>
+      </c>
+      <c r="E77">
+        <v>17782</v>
+      </c>
+      <c r="F77">
+        <v>11260</v>
+      </c>
+      <c r="G77">
+        <v>48185</v>
+      </c>
+      <c r="H77">
+        <v>220113</v>
+      </c>
+      <c r="I77">
+        <v>9442</v>
+      </c>
+      <c r="J77">
+        <v>63615</v>
+      </c>
+      <c r="K77">
+        <v>1070</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>52544</v>
+      </c>
+      <c r="O77">
+        <v>157180</v>
+      </c>
+      <c r="P77">
+        <v>89678</v>
+      </c>
+      <c r="Q77">
+        <v>-869</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>62933</v>
+      </c>
+      <c r="U77">
+        <v>5193</v>
+      </c>
+      <c r="V77">
+        <v>2928</v>
+      </c>
+      <c r="W77">
+        <v>-646</v>
+      </c>
+      <c r="X77">
+        <v>-2968</v>
+      </c>
+      <c r="Y77">
+        <v>19417</v>
+      </c>
+      <c r="Z77">
+        <v>-119</v>
+      </c>
+      <c r="AA77">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>1747</v>
+      </c>
+      <c r="D78">
+        <v>66683</v>
+      </c>
+      <c r="E78">
+        <v>17236</v>
+      </c>
+      <c r="F78">
+        <v>11485</v>
+      </c>
+      <c r="G78">
+        <v>50302</v>
+      </c>
+      <c r="H78">
+        <v>222449</v>
+      </c>
+      <c r="I78">
+        <v>10492</v>
+      </c>
+      <c r="J78">
+        <v>63918</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>53303</v>
+      </c>
+      <c r="O78">
+        <v>158279</v>
+      </c>
+      <c r="P78">
+        <v>89002</v>
+      </c>
+      <c r="Q78">
+        <v>485</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>290000</v>
+      </c>
+      <c r="T78">
+        <v>64170</v>
+      </c>
+      <c r="U78">
+        <v>5683</v>
+      </c>
+      <c r="V78">
+        <v>2634</v>
+      </c>
+      <c r="W78">
+        <v>-651</v>
+      </c>
+      <c r="X78">
+        <v>-1440</v>
+      </c>
+      <c r="Y78">
+        <v>19707</v>
+      </c>
+      <c r="Z78">
+        <v>-90</v>
+      </c>
+      <c r="AA78">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>2007</v>
+      </c>
+      <c r="D79">
+        <v>66593</v>
+      </c>
+      <c r="E79">
+        <v>20199</v>
+      </c>
+      <c r="F79">
+        <v>11859</v>
+      </c>
+      <c r="G79">
+        <v>58958</v>
+      </c>
+      <c r="H79">
+        <v>230639</v>
+      </c>
+      <c r="I79">
+        <v>10223</v>
+      </c>
+      <c r="J79">
+        <v>64816</v>
+      </c>
+      <c r="K79">
+        <v>255</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-1008</v>
+      </c>
+      <c r="N79">
+        <v>59560</v>
+      </c>
+      <c r="O79">
+        <v>165165</v>
+      </c>
+      <c r="P79">
+        <v>92319</v>
+      </c>
+      <c r="Q79">
+        <v>4383</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>65474</v>
+      </c>
+      <c r="U79">
+        <v>10081</v>
+      </c>
+      <c r="V79">
+        <v>3305</v>
+      </c>
+      <c r="W79">
+        <v>-652</v>
+      </c>
+      <c r="X79">
+        <v>2675</v>
+      </c>
+      <c r="Y79">
+        <v>19658</v>
+      </c>
+      <c r="Z79">
+        <v>-247</v>
+      </c>
+      <c r="AA79">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>2975</v>
+      </c>
+      <c r="D80">
+        <v>65157</v>
+      </c>
+      <c r="E80">
+        <v>19719</v>
+      </c>
+      <c r="F80">
+        <v>13164</v>
+      </c>
+      <c r="G80">
+        <v>62506</v>
+      </c>
+      <c r="H80">
+        <v>235495</v>
+      </c>
+      <c r="I80">
+        <v>9919</v>
+      </c>
+      <c r="J80">
+        <v>62479</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>63694</v>
+      </c>
+      <c r="O80">
+        <v>167140</v>
+      </c>
+      <c r="P80">
+        <v>92051</v>
+      </c>
+      <c r="Q80">
+        <v>4808</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>68355</v>
+      </c>
+      <c r="U80">
+        <v>14869</v>
+      </c>
+      <c r="V80">
+        <v>7119</v>
+      </c>
+      <c r="W80">
+        <v>-663</v>
+      </c>
+      <c r="X80">
+        <v>-978</v>
+      </c>
+      <c r="Y80">
+        <v>19614</v>
+      </c>
+      <c r="Z80">
+        <v>-731</v>
+      </c>
+      <c r="AA80">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>1224</v>
+      </c>
+      <c r="D81">
+        <v>66852</v>
+      </c>
+      <c r="E81">
+        <v>20645</v>
+      </c>
+      <c r="F81">
+        <v>11516</v>
+      </c>
+      <c r="G81">
+        <v>59211</v>
+      </c>
+      <c r="H81">
+        <v>232898</v>
+      </c>
+      <c r="I81">
+        <v>11677</v>
+      </c>
+      <c r="J81">
+        <v>60516</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>62044</v>
+      </c>
+      <c r="O81">
+        <v>163786</v>
+      </c>
+      <c r="P81">
+        <v>87273</v>
+      </c>
+      <c r="Q81">
+        <v>-5613</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>69112</v>
+      </c>
+      <c r="U81">
+        <v>9256</v>
+      </c>
+      <c r="V81">
+        <v>1874</v>
+      </c>
+      <c r="W81">
+        <v>-665</v>
+      </c>
+      <c r="X81">
+        <v>-6117</v>
+      </c>
+      <c r="Y81">
+        <v>19525</v>
+      </c>
+      <c r="Z81">
+        <v>-1609</v>
+      </c>
+      <c r="AA81">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>973</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>69306</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>19544</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>11709</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>56369</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>230715</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>11138</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>58157</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>62017</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>161014</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>85042</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-1402</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>213000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>69701</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>7854</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>3567</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-644</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-3735</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>19807</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-585</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>973</v>
       </c>
     </row>
